--- a/data/trans_orig/Q5409-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5409-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26814A2E-C0DF-40AB-AC21-B7D76D1A2684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7144F81E-06B3-4ADE-9460-7E6FEC854AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CC33514D-E136-4138-B0A6-955E99A4F2E8}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B7D3E004-8014-4338-849E-31D49BA7A4B2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="769">
   <si>
     <t>Población según si se le escapa la orina (incontinencia) en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -80,7 +80,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>11,52%</t>
+    <t>12,74%</t>
   </si>
   <si>
     <t>0%</t>
@@ -92,7 +92,7 @@
     <t>1,23%</t>
   </si>
   <si>
-    <t>6,49%</t>
+    <t>6,2%</t>
   </si>
   <si>
     <t>Pocas veces</t>
@@ -101,2281 +101,2251 @@
     <t>4,82%</t>
   </si>
   <si>
-    <t>14,6%</t>
+    <t>16,44%</t>
   </si>
   <si>
     <t>2,28%</t>
   </si>
   <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se le escapa la orina (incontinencia) en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>74,22%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>Población según si se le escapa la orina (incontinencia) en 2015 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
     <t>8,26%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>Población según si se le escapa la orina (incontinencia) en 2023 (Tasa respuesta: 31,24%)</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
   </si>
   <si>
     <t>6,24%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
   </si>
   <si>
     <t>2,38%</t>
   </si>
   <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>76,52%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
   </si>
   <si>
     <t>2,84%</t>
   </si>
   <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se le escapa la orina (incontinencia) en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>Población según si se le escapa la orina (incontinencia) en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>63,87%</t>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
   </si>
   <si>
     <t>89,13%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>Población según si se le escapa la orina (incontinencia) en 2023 (Tasa respuesta: 31,24%)</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
   </si>
 </sst>
 </file>
@@ -2787,7 +2757,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{847B2AE4-1C03-4DF0-88EB-827741A2B15F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D9B464-027F-4638-8CB9-7B28D9890DD1}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3183,13 +3153,13 @@
         <v>6496</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M9" s="7">
         <v>11</v>
@@ -3198,13 +3168,13 @@
         <v>11424</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3219,13 +3189,13 @@
         <v>61726</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H10" s="7">
         <v>89</v>
@@ -3234,13 +3204,13 @@
         <v>90155</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M10" s="7">
         <v>149</v>
@@ -3249,13 +3219,13 @@
         <v>151881</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3311,7 +3281,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3329,7 +3299,7 @@
         <v>14</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -3338,13 +3308,13 @@
         <v>2288</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -3353,13 +3323,13 @@
         <v>2288</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3374,13 +3344,13 @@
         <v>949</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -3389,13 +3359,13 @@
         <v>2288</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -3404,13 +3374,13 @@
         <v>3237</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3425,10 +3395,10 @@
         <v>49991</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>27</v>
@@ -3440,13 +3410,13 @@
         <v>78945</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M14" s="7">
         <v>130</v>
@@ -3455,13 +3425,13 @@
         <v>128936</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3517,7 +3487,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3529,13 +3499,13 @@
         <v>831</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -3544,13 +3514,13 @@
         <v>2007</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -3559,13 +3529,13 @@
         <v>2838</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3580,13 +3550,13 @@
         <v>919</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -3598,10 +3568,10 @@
         <v>39</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -3610,13 +3580,13 @@
         <v>6410</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3631,10 +3601,10 @@
         <v>53373</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>27</v>
@@ -3646,13 +3616,13 @@
         <v>66815</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M18" s="7">
         <v>128</v>
@@ -3661,13 +3631,13 @@
         <v>120188</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3723,7 +3693,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3741,7 +3711,7 @@
         <v>14</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -3750,13 +3720,13 @@
         <v>2287</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -3765,13 +3735,13 @@
         <v>2287</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3786,13 +3756,13 @@
         <v>4281</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -3801,13 +3771,13 @@
         <v>4607</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M21" s="7">
         <v>9</v>
@@ -3816,13 +3786,13 @@
         <v>8888</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3837,13 +3807,13 @@
         <v>25066</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H22" s="7">
         <v>33</v>
@@ -3852,13 +3822,13 @@
         <v>34353</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M22" s="7">
         <v>62</v>
@@ -3867,13 +3837,13 @@
         <v>59418</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3929,7 +3899,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3947,7 +3917,7 @@
         <v>14</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -3956,13 +3926,13 @@
         <v>1141</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -3971,13 +3941,13 @@
         <v>1141</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3992,13 +3962,13 @@
         <v>946</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -4007,13 +3977,13 @@
         <v>3739</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -4022,13 +3992,13 @@
         <v>4685</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4043,10 +4013,10 @@
         <v>46250</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>27</v>
@@ -4058,13 +4028,13 @@
         <v>65429</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M26" s="7">
         <v>111</v>
@@ -4073,13 +4043,13 @@
         <v>111680</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4135,7 +4105,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4147,13 +4117,13 @@
         <v>838</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -4162,13 +4132,13 @@
         <v>3057</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -4177,7 +4147,7 @@
         <v>3895</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>151</v>
@@ -4198,7 +4168,7 @@
         <v>1771</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>12</v>
@@ -4213,7 +4183,7 @@
         <v>897</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>12</v>
@@ -4577,10 +4547,10 @@
         <v>198</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>129</v>
+        <v>199</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M36" s="7">
         <v>25</v>
@@ -4589,13 +4559,13 @@
         <v>27249</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4610,10 +4580,10 @@
         <v>27753</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>204</v>
+        <v>38</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>205</v>
@@ -4679,10 +4649,10 @@
         <v>215</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M38" s="7">
         <v>1091</v>
@@ -4691,13 +4661,13 @@
         <v>1084051</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4753,7 +4723,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -4777,7 +4747,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E77A5D6B-C880-457B-8100-77C297E05A93}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{943F4BEC-552C-4927-8D20-81610A95A93B}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4794,7 +4764,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4899,39 +4869,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4944,39 +4914,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4989,39 +4959,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5034,39 +5004,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5083,13 +5053,13 @@
         <v>2130</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H8" s="7">
         <v>12</v>
@@ -5098,13 +5068,13 @@
         <v>14191</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M8" s="7">
         <v>14</v>
@@ -5113,13 +5083,13 @@
         <v>16321</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5134,13 +5104,13 @@
         <v>6505</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H9" s="7">
         <v>10</v>
@@ -5149,13 +5119,13 @@
         <v>10912</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M9" s="7">
         <v>14</v>
@@ -5164,13 +5134,13 @@
         <v>17417</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5185,13 +5155,13 @@
         <v>70567</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>73</v>
+        <v>242</v>
       </c>
       <c r="H10" s="7">
         <v>71</v>
@@ -5200,13 +5170,13 @@
         <v>76990</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M10" s="7">
         <v>134</v>
@@ -5215,13 +5185,13 @@
         <v>147558</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5277,7 +5247,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5289,13 +5259,13 @@
         <v>2988</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -5304,13 +5274,13 @@
         <v>6557</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="M12" s="7">
         <v>9</v>
@@ -5319,13 +5289,13 @@
         <v>9545</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>111</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5340,13 +5310,13 @@
         <v>4182</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -5355,13 +5325,13 @@
         <v>5208</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -5370,13 +5340,13 @@
         <v>9390</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5391,13 +5361,13 @@
         <v>48572</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>265</v>
+        <v>71</v>
       </c>
       <c r="H14" s="7">
         <v>64</v>
@@ -5406,13 +5376,13 @@
         <v>68203</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="M14" s="7">
         <v>111</v>
@@ -5421,13 +5391,13 @@
         <v>116775</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5483,7 +5453,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5501,7 +5471,7 @@
         <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -5510,13 +5480,13 @@
         <v>10650</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>204</v>
+        <v>277</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -5525,13 +5495,13 @@
         <v>10650</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5546,13 +5516,13 @@
         <v>8468</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>279</v>
+        <v>46</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="H17" s="7">
         <v>13</v>
@@ -5561,13 +5531,13 @@
         <v>13610</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>281</v>
+        <v>64</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M17" s="7">
         <v>21</v>
@@ -5576,13 +5546,13 @@
         <v>22078</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5597,13 +5567,13 @@
         <v>99840</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H18" s="7">
         <v>106</v>
@@ -5612,13 +5582,13 @@
         <v>110208</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>291</v>
+        <v>243</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M18" s="7">
         <v>196</v>
@@ -5627,10 +5597,10 @@
         <v>210049</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>295</v>
@@ -5689,7 +5659,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5737,7 +5707,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>112</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5752,13 +5722,13 @@
         <v>4570</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H21" s="7">
         <v>13</v>
@@ -5767,13 +5737,13 @@
         <v>13179</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M21" s="7">
         <v>17</v>
@@ -5782,13 +5752,13 @@
         <v>17750</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5803,13 +5773,13 @@
         <v>26007</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H22" s="7">
         <v>35</v>
@@ -5818,13 +5788,13 @@
         <v>36676</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M22" s="7">
         <v>58</v>
@@ -5833,13 +5803,13 @@
         <v>62683</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5895,7 +5865,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5907,13 +5877,13 @@
         <v>1057</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>319</v>
+        <v>231</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -5991,10 +5961,10 @@
         <v>332</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6009,13 +5979,13 @@
         <v>45400</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="H26" s="7">
         <v>62</v>
@@ -6024,13 +5994,13 @@
         <v>62762</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="M26" s="7">
         <v>106</v>
@@ -6039,13 +6009,13 @@
         <v>108162</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6101,7 +6071,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6113,13 +6083,13 @@
         <v>1032</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -6128,13 +6098,13 @@
         <v>3188</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -6143,13 +6113,13 @@
         <v>4220</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6325,7 +6295,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="H32" s="7">
         <v>8</v>
@@ -6334,13 +6304,13 @@
         <v>8834</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="M32" s="7">
         <v>9</v>
@@ -6349,13 +6319,13 @@
         <v>9932</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>333</v>
+        <v>372</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>62</v>
+        <v>373</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6370,13 +6340,13 @@
         <v>6582</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H33" s="7">
         <v>13</v>
@@ -6385,13 +6355,13 @@
         <v>14289</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>377</v>
+        <v>106</v>
       </c>
       <c r="M33" s="7">
         <v>18</v>
@@ -6442,7 +6412,7 @@
         <v>385</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>386</v>
+        <v>213</v>
       </c>
       <c r="M34" s="7">
         <v>230</v>
@@ -6451,13 +6421,13 @@
         <v>254366</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6525,10 +6495,10 @@
         <v>9340</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>145</v>
+        <v>389</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>390</v>
@@ -6546,7 +6516,7 @@
         <v>392</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>85</v>
+        <v>393</v>
       </c>
       <c r="M36" s="7">
         <v>51</v>
@@ -6555,13 +6525,13 @@
         <v>56003</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>393</v>
+        <v>350</v>
       </c>
       <c r="P36" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6576,13 +6546,13 @@
         <v>45087</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>398</v>
       </c>
       <c r="H37" s="7">
         <v>70</v>
@@ -6591,13 +6561,13 @@
         <v>74828</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>399</v>
+        <v>371</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="M37" s="7">
         <v>106</v>
@@ -6606,13 +6576,13 @@
         <v>119915</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>177</v>
+        <v>401</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6627,13 +6597,13 @@
         <v>505210</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="H38" s="7">
         <v>582</v>
@@ -6642,13 +6612,13 @@
         <v>621484</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="M38" s="7">
         <v>1041</v>
@@ -6657,13 +6627,13 @@
         <v>1126694</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6719,7 +6689,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -6743,7 +6713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F452ECB2-9C95-4871-A8B0-DB3B4712CBB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D859C4-2A7F-4FAA-9D93-2D8B0FDF895A}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6760,7 +6730,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6867,13 +6837,13 @@
         <v>794</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -6882,13 +6852,13 @@
         <v>3262</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>416</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -6897,13 +6867,13 @@
         <v>4056</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6918,13 +6888,13 @@
         <v>7511</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>422</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -6933,13 +6903,13 @@
         <v>10156</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>425</v>
       </c>
       <c r="M5" s="7">
         <v>17</v>
@@ -6948,13 +6918,13 @@
         <v>17667</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6969,13 +6939,13 @@
         <v>30592</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>431</v>
       </c>
       <c r="H6" s="7">
         <v>32</v>
@@ -6984,13 +6954,13 @@
         <v>35972</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>434</v>
       </c>
       <c r="M6" s="7">
         <v>64</v>
@@ -6999,13 +6969,13 @@
         <v>66564</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7079,7 +7049,7 @@
         <v>14</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -7088,13 +7058,13 @@
         <v>2430</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -7109,7 +7079,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7124,13 +7094,13 @@
         <v>2503</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>443</v>
+        <v>395</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -7139,13 +7109,13 @@
         <v>2614</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -7154,13 +7124,13 @@
         <v>5117</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7175,13 +7145,13 @@
         <v>84792</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H10" s="7">
         <v>91</v>
@@ -7190,13 +7160,13 @@
         <v>110184</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>452</v>
+        <v>56</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="M10" s="7">
         <v>178</v>
@@ -7205,13 +7175,13 @@
         <v>194977</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7267,7 +7237,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -7285,7 +7255,7 @@
         <v>14</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -7294,13 +7264,13 @@
         <v>4477</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>460</v>
+        <v>330</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -7309,13 +7279,13 @@
         <v>4477</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>126</v>
+        <v>357</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7330,13 +7300,13 @@
         <v>4348</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>464</v>
+        <v>175</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -7345,13 +7315,13 @@
         <v>6297</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>462</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -7360,13 +7330,13 @@
         <v>10645</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7381,13 +7351,13 @@
         <v>59198</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H14" s="7">
         <v>61</v>
@@ -7396,13 +7366,13 @@
         <v>69123</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="M14" s="7">
         <v>128</v>
@@ -7411,13 +7381,13 @@
         <v>128321</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>477</v>
+        <v>118</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7473,7 +7443,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7485,13 +7455,13 @@
         <v>2627</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>479</v>
+        <v>152</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>35</v>
+        <v>474</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -7500,13 +7470,13 @@
         <v>7180</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>231</v>
+        <v>477</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -7515,13 +7485,13 @@
         <v>9807</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>157</v>
+        <v>480</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7536,13 +7506,13 @@
         <v>1772</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -7551,13 +7521,13 @@
         <v>12503</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
@@ -7566,13 +7536,13 @@
         <v>14274</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>15</v>
+        <v>153</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7587,13 +7557,13 @@
         <v>60313</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="H18" s="7">
         <v>60</v>
@@ -7602,13 +7572,13 @@
         <v>71892</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="M18" s="7">
         <v>126</v>
@@ -7617,13 +7587,13 @@
         <v>132204</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7679,7 +7649,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7697,7 +7667,7 @@
         <v>14</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7712,7 +7682,7 @@
         <v>14</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>327</v>
+        <v>497</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -7727,7 +7697,7 @@
         <v>14</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7742,13 +7712,13 @@
         <v>799</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -7757,13 +7727,13 @@
         <v>2096</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>154</v>
+        <v>500</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="M21" s="7">
         <v>3</v>
@@ -7772,7 +7742,7 @@
         <v>2895</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>253</v>
+        <v>502</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>503</v>
@@ -7885,7 +7855,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7897,13 +7867,13 @@
         <v>2752</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>358</v>
+        <v>512</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>60</v>
+        <v>348</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>512</v>
+        <v>483</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -7915,10 +7885,10 @@
         <v>513</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>514</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>515</v>
       </c>
       <c r="M24" s="7">
         <v>8</v>
@@ -7927,13 +7897,13 @@
         <v>8792</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>517</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7948,13 +7918,13 @@
         <v>9096</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>520</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>521</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -7963,10 +7933,10 @@
         <v>4410</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>522</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>523</v>
@@ -7978,10 +7948,10 @@
         <v>13506</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>130</v>
+        <v>524</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>524</v>
+        <v>42</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>525</v>
@@ -8014,13 +7984,13 @@
         <v>56937</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>530</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>531</v>
       </c>
       <c r="M26" s="7">
         <v>91</v>
@@ -8029,13 +7999,13 @@
         <v>93536</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>533</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8091,7 +8061,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8103,13 +8073,13 @@
         <v>1804</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>536</v>
+        <v>484</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -8118,13 +8088,13 @@
         <v>3582</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>538</v>
+        <v>444</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>539</v>
+        <v>171</v>
       </c>
       <c r="M28" s="7">
         <v>5</v>
@@ -8133,13 +8103,13 @@
         <v>5386</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8154,13 +8124,13 @@
         <v>11608</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>543</v>
+        <v>15</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="H29" s="7">
         <v>30</v>
@@ -8169,13 +8139,13 @@
         <v>36155</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="M29" s="7">
         <v>40</v>
@@ -8184,13 +8154,13 @@
         <v>47763</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>549</v>
+        <v>359</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8205,13 +8175,13 @@
         <v>98773</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="H30" s="7">
         <v>92</v>
@@ -8220,13 +8190,13 @@
         <v>107888</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>556</v>
+        <v>341</v>
       </c>
       <c r="M30" s="7">
         <v>189</v>
@@ -8235,13 +8205,13 @@
         <v>206661</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8309,13 +8279,13 @@
         <v>867</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="H32" s="7">
         <v>6</v>
@@ -8324,13 +8294,13 @@
         <v>7502</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>563</v>
+        <v>78</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="M32" s="7">
         <v>7</v>
@@ -8339,13 +8309,13 @@
         <v>8369</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>195</v>
+        <v>557</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>565</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8360,13 +8330,13 @@
         <v>3409</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>560</v>
+        <v>83</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>566</v>
+        <v>300</v>
       </c>
       <c r="H33" s="7">
         <v>3</v>
@@ -8375,13 +8345,13 @@
         <v>3424</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="M33" s="7">
         <v>7</v>
@@ -8390,13 +8360,13 @@
         <v>6834</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>570</v>
+        <v>324</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8411,13 +8381,13 @@
         <v>129892</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="H34" s="7">
         <v>133</v>
@@ -8426,13 +8396,13 @@
         <v>165371</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>577</v>
+        <v>50</v>
       </c>
       <c r="M34" s="7">
         <v>269</v>
@@ -8444,10 +8414,10 @@
         <v>28</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>578</v>
+        <v>271</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8518,10 +8488,10 @@
         <v>321</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>580</v>
+        <v>443</v>
       </c>
       <c r="H36" s="7">
         <v>27</v>
@@ -8530,13 +8500,13 @@
         <v>34474</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>210</v>
+        <v>392</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>581</v>
+        <v>34</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
       <c r="M36" s="7">
         <v>37</v>
@@ -8545,13 +8515,13 @@
         <v>43317</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>583</v>
+        <v>256</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>584</v>
+        <v>441</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>393</v>
+        <v>555</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8566,13 +8536,13 @@
         <v>41045</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>585</v>
+        <v>569</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="H37" s="7">
         <v>65</v>
@@ -8581,13 +8551,13 @@
         <v>77655</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>587</v>
+        <v>571</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>588</v>
+        <v>170</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="M37" s="7">
         <v>110</v>
@@ -8596,13 +8566,13 @@
         <v>118700</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>78</v>
+        <v>573</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>590</v>
+        <v>574</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8617,13 +8587,13 @@
         <v>541440</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>431</v>
+        <v>577</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="H38" s="7">
         <v>563</v>
@@ -8632,13 +8602,13 @@
         <v>665802</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>595</v>
+        <v>580</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>137</v>
+        <v>581</v>
       </c>
       <c r="M38" s="7">
         <v>1135</v>
@@ -8647,13 +8617,13 @@
         <v>1207242</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8709,7 +8679,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -8733,7 +8703,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8DAA29A-5A47-4614-9AA6-2CC42FF6B295}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684F0CAD-F1EA-45A5-AEFE-2BABDF659AA2}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8750,7 +8720,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8878,7 +8848,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -8923,13 +8893,13 @@
         <v>3289</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>602</v>
+        <v>535</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>603</v>
+        <v>588</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -8938,13 +8908,13 @@
         <v>3289</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>604</v>
+        <v>589</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>605</v>
+        <v>590</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>606</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8962,7 +8932,7 @@
         <v>27</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>29</v>
@@ -8974,13 +8944,13 @@
         <v>58930</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>609</v>
+        <v>216</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>610</v>
+        <v>593</v>
       </c>
       <c r="M6" s="7">
         <v>209</v>
@@ -8989,13 +8959,13 @@
         <v>110850</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>579</v>
+        <v>594</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>611</v>
+        <v>565</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>612</v>
+        <v>595</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9069,7 +9039,7 @@
         <v>14</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
@@ -9078,13 +9048,13 @@
         <v>5250</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>613</v>
+        <v>596</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>614</v>
+        <v>597</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>615</v>
+        <v>598</v>
       </c>
       <c r="M8" s="7">
         <v>8</v>
@@ -9093,13 +9063,13 @@
         <v>5250</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>275</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9114,13 +9084,13 @@
         <v>2964</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>514</v>
+        <v>601</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>616</v>
+        <v>602</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>617</v>
+        <v>91</v>
       </c>
       <c r="H9" s="7">
         <v>23</v>
@@ -9129,13 +9099,13 @@
         <v>14722</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>618</v>
+        <v>603</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>619</v>
+        <v>604</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>620</v>
+        <v>605</v>
       </c>
       <c r="M9" s="7">
         <v>26</v>
@@ -9147,10 +9117,10 @@
         <v>332</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>621</v>
+        <v>606</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>622</v>
+        <v>607</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9165,13 +9135,13 @@
         <v>83350</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>623</v>
+        <v>608</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>624</v>
+        <v>609</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>625</v>
+        <v>610</v>
       </c>
       <c r="H10" s="7">
         <v>191</v>
@@ -9180,13 +9150,13 @@
         <v>120736</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>288</v>
+        <v>611</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>627</v>
+        <v>613</v>
       </c>
       <c r="M10" s="7">
         <v>283</v>
@@ -9195,13 +9165,13 @@
         <v>204085</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>628</v>
+        <v>614</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>629</v>
+        <v>615</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9257,7 +9227,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -9269,13 +9239,13 @@
         <v>4295</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>632</v>
+        <v>234</v>
       </c>
       <c r="H12" s="7">
         <v>8</v>
@@ -9284,13 +9254,13 @@
         <v>4008</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>633</v>
+        <v>207</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>634</v>
+        <v>618</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="M12" s="7">
         <v>15</v>
@@ -9299,13 +9269,13 @@
         <v>8303</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>580</v>
+        <v>439</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>637</v>
+        <v>621</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9320,13 +9290,13 @@
         <v>6131</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>377</v>
+        <v>624</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -9335,13 +9305,13 @@
         <v>13904</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>640</v>
+        <v>625</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>641</v>
+        <v>626</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>232</v>
+        <v>627</v>
       </c>
       <c r="M13" s="7">
         <v>35</v>
@@ -9350,13 +9320,13 @@
         <v>20035</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>642</v>
+        <v>628</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>643</v>
+        <v>629</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9371,13 +9341,13 @@
         <v>67175</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>645</v>
+        <v>631</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>646</v>
+        <v>25</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>647</v>
+        <v>632</v>
       </c>
       <c r="H14" s="7">
         <v>136</v>
@@ -9386,13 +9356,13 @@
         <v>77039</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>648</v>
+        <v>361</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>649</v>
+        <v>633</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>650</v>
+        <v>634</v>
       </c>
       <c r="M14" s="7">
         <v>241</v>
@@ -9401,13 +9371,13 @@
         <v>144214</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>651</v>
+        <v>635</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>652</v>
+        <v>636</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>653</v>
+        <v>637</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9463,7 +9433,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -9481,7 +9451,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>654</v>
+        <v>638</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -9490,13 +9460,13 @@
         <v>6895</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>61</v>
+        <v>639</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>655</v>
+        <v>640</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>656</v>
+        <v>499</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -9505,13 +9475,13 @@
         <v>7583</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>657</v>
+        <v>641</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>89</v>
+        <v>642</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>658</v>
+        <v>643</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9526,13 +9496,13 @@
         <v>8154</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>203</v>
+        <v>284</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>659</v>
+        <v>644</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
@@ -9541,13 +9511,13 @@
         <v>12129</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>660</v>
+        <v>645</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>403</v>
+        <v>646</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>661</v>
+        <v>647</v>
       </c>
       <c r="M17" s="7">
         <v>41</v>
@@ -9556,13 +9526,13 @@
         <v>20283</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>662</v>
+        <v>648</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>277</v>
+        <v>649</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>663</v>
+        <v>650</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9577,13 +9547,13 @@
         <v>69963</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>666</v>
+        <v>471</v>
       </c>
       <c r="H18" s="7">
         <v>213</v>
@@ -9592,13 +9562,13 @@
         <v>91432</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>669</v>
+        <v>655</v>
       </c>
       <c r="M18" s="7">
         <v>317</v>
@@ -9607,13 +9577,13 @@
         <v>161394</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>670</v>
+        <v>656</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>671</v>
+        <v>657</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>672</v>
+        <v>658</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9669,7 +9639,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -9681,13 +9651,13 @@
         <v>1045</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>673</v>
+        <v>659</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>674</v>
+        <v>513</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -9696,13 +9666,13 @@
         <v>778</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>675</v>
+        <v>660</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>676</v>
+        <v>661</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -9711,13 +9681,13 @@
         <v>1824</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>677</v>
+        <v>662</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>678</v>
+        <v>663</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>679</v>
+        <v>664</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9732,13 +9702,13 @@
         <v>4411</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>680</v>
+        <v>665</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>395</v>
+        <v>84</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>681</v>
+        <v>666</v>
       </c>
       <c r="H21" s="7">
         <v>31</v>
@@ -9747,13 +9717,13 @@
         <v>13432</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>682</v>
+        <v>667</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>683</v>
+        <v>668</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>684</v>
+        <v>669</v>
       </c>
       <c r="M21" s="7">
         <v>39</v>
@@ -9762,13 +9732,13 @@
         <v>17843</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>685</v>
+        <v>670</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>427</v>
+        <v>671</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>686</v>
+        <v>672</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9783,13 +9753,13 @@
         <v>32874</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>687</v>
+        <v>673</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>688</v>
+        <v>674</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>689</v>
+        <v>675</v>
       </c>
       <c r="H22" s="7">
         <v>132</v>
@@ -9798,13 +9768,13 @@
         <v>51270</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>690</v>
+        <v>676</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>691</v>
+        <v>677</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>692</v>
+        <v>678</v>
       </c>
       <c r="M22" s="7">
         <v>193</v>
@@ -9813,13 +9783,13 @@
         <v>84145</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>693</v>
+        <v>679</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>694</v>
+        <v>243</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>695</v>
+        <v>680</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9875,7 +9845,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -9887,13 +9857,13 @@
         <v>5423</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>635</v>
+        <v>681</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>696</v>
+        <v>682</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>697</v>
+        <v>683</v>
       </c>
       <c r="H24" s="7">
         <v>14</v>
@@ -9902,13 +9872,13 @@
         <v>5569</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>698</v>
+        <v>684</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>699</v>
+        <v>416</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>700</v>
+        <v>685</v>
       </c>
       <c r="M24" s="7">
         <v>26</v>
@@ -9917,13 +9887,13 @@
         <v>10992</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>22</v>
+        <v>442</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>106</v>
+        <v>686</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>701</v>
+        <v>687</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9938,13 +9908,13 @@
         <v>5410</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>702</v>
+        <v>688</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>703</v>
+        <v>200</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>704</v>
+        <v>226</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -9953,13 +9923,13 @@
         <v>2856</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>705</v>
+        <v>689</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>706</v>
+        <v>522</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>351</v>
+        <v>690</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
@@ -9968,13 +9938,13 @@
         <v>8266</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>707</v>
+        <v>347</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>708</v>
+        <v>154</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>59</v>
+        <v>691</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9989,13 +9959,13 @@
         <v>52350</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>709</v>
+        <v>692</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>710</v>
+        <v>693</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>194</v>
+        <v>694</v>
       </c>
       <c r="H26" s="7">
         <v>156</v>
@@ -10004,13 +9974,13 @@
         <v>61428</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>711</v>
+        <v>695</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>712</v>
+        <v>696</v>
       </c>
       <c r="M26" s="7">
         <v>267</v>
@@ -10019,13 +9989,13 @@
         <v>113779</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>713</v>
+        <v>697</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>714</v>
+        <v>698</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>715</v>
+        <v>699</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10081,7 +10051,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -10093,13 +10063,13 @@
         <v>2383</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>614</v>
+        <v>700</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>716</v>
+        <v>701</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>199</v>
+        <v>702</v>
       </c>
       <c r="H28" s="7">
         <v>13</v>
@@ -10108,13 +10078,13 @@
         <v>8765</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>202</v>
+        <v>703</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>717</v>
+        <v>704</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>718</v>
+        <v>258</v>
       </c>
       <c r="M28" s="7">
         <v>16</v>
@@ -10123,13 +10093,13 @@
         <v>11148</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>719</v>
+        <v>705</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>169</v>
+        <v>590</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>720</v>
+        <v>706</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10144,13 +10114,13 @@
         <v>20303</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>721</v>
+        <v>707</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="H29" s="7">
         <v>41</v>
@@ -10159,13 +10129,13 @@
         <v>26171</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>724</v>
+        <v>710</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>57</v>
+        <v>711</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>725</v>
+        <v>712</v>
       </c>
       <c r="M29" s="7">
         <v>66</v>
@@ -10174,13 +10144,13 @@
         <v>46474</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>726</v>
+        <v>713</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>727</v>
+        <v>714</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>728</v>
+        <v>715</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10195,13 +10165,13 @@
         <v>108154</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>729</v>
+        <v>716</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>730</v>
+        <v>717</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="H30" s="7">
         <v>188</v>
@@ -10210,13 +10180,13 @@
         <v>223907</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>732</v>
+        <v>719</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>733</v>
+        <v>720</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="M30" s="7">
         <v>328</v>
@@ -10225,13 +10195,13 @@
         <v>332061</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>735</v>
+        <v>722</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>736</v>
+        <v>723</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>737</v>
+        <v>724</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10299,13 +10269,13 @@
         <v>4722</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>738</v>
+        <v>725</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>299</v>
+        <v>726</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>739</v>
+        <v>727</v>
       </c>
       <c r="H32" s="7">
         <v>18</v>
@@ -10314,13 +10284,13 @@
         <v>14063</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>582</v>
+        <v>728</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>740</v>
+        <v>729</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="M32" s="7">
         <v>24</v>
@@ -10329,13 +10299,13 @@
         <v>18785</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>742</v>
+        <v>731</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>462</v>
+        <v>732</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>743</v>
+        <v>258</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10350,13 +10320,13 @@
         <v>9060</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>744</v>
+        <v>686</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>745</v>
+        <v>733</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>746</v>
+        <v>734</v>
       </c>
       <c r="H33" s="7">
         <v>34</v>
@@ -10365,13 +10335,13 @@
         <v>23103</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>747</v>
+        <v>736</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>748</v>
+        <v>737</v>
       </c>
       <c r="M33" s="7">
         <v>47</v>
@@ -10380,13 +10350,13 @@
         <v>32163</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>749</v>
+        <v>738</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10401,13 +10371,13 @@
         <v>155452</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>751</v>
+        <v>740</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>335</v>
+        <v>741</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="H34" s="7">
         <v>290</v>
@@ -10416,13 +10386,13 @@
         <v>185233</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>754</v>
+        <v>655</v>
       </c>
       <c r="M34" s="7">
         <v>505</v>
@@ -10431,13 +10401,13 @@
         <v>340685</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>755</v>
+        <v>744</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10505,13 +10475,13 @@
         <v>18557</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>758</v>
+        <v>747</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>500</v>
+        <v>375</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="H36" s="7">
         <v>78</v>
@@ -10520,13 +10490,13 @@
         <v>45327</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>209</v>
+        <v>727</v>
       </c>
       <c r="M36" s="7">
         <v>109</v>
@@ -10535,13 +10505,13 @@
         <v>63884</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>762</v>
+        <v>751</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>157</v>
+        <v>752</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>320</v>
+        <v>753</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10556,13 +10526,13 @@
         <v>56434</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>763</v>
+        <v>208</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="H37" s="7">
         <v>195</v>
@@ -10571,13 +10541,13 @@
         <v>109605</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="M37" s="7">
         <v>279</v>
@@ -10586,13 +10556,13 @@
         <v>166038</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>108</v>
+        <v>760</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10607,13 +10577,13 @@
         <v>621238</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>771</v>
+        <v>403</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="H38" s="7">
         <v>1432</v>
@@ -10622,13 +10592,13 @@
         <v>869976</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="M38" s="7">
         <v>2343</v>
@@ -10637,13 +10607,13 @@
         <v>1491214</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10699,7 +10669,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5409-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5409-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7144F81E-06B3-4ADE-9460-7E6FEC854AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{413CB6C5-E199-49FC-BB29-07FFB485C737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B7D3E004-8014-4338-849E-31D49BA7A4B2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BBB19CDB-1971-4E6B-B608-F86AB038BEB8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="779">
   <si>
     <t>Población según si se le escapa la orina (incontinencia) en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -80,7 +80,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>12,74%</t>
+    <t>12,96%</t>
   </si>
   <si>
     <t>0%</t>
@@ -92,2217 +92,2250 @@
     <t>1,23%</t>
   </si>
   <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>Pocas veces</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se le escapa la orina (incontinencia) en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>Población según si se le escapa la orina (incontinencia) en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>Población según si se le escapa la orina (incontinencia) en 2023 (Tasa respuesta: 31,24%)</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
     <t>6,2%</t>
   </si>
   <si>
-    <t>Pocas veces</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>92,58%</t>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
   </si>
   <si>
     <t>79,7%</t>
   </si>
   <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
   </si>
   <si>
     <t>5,57%</t>
   </si>
   <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
   </si>
   <si>
     <t>3,86%</t>
   </si>
   <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>76,52%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
   </si>
   <si>
     <t>8,11%</t>
   </si>
   <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se le escapa la orina (incontinencia) en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>Población según si se le escapa la orina (incontinencia) en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>Población según si se le escapa la orina (incontinencia) en 2023 (Tasa respuesta: 31,24%)</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>74,65%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>76,52%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
     <t>6,42%</t>
   </si>
   <si>
@@ -2313,9 +2346,6 @@
   </si>
   <si>
     <t>12,57%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
   </si>
   <si>
     <t>7,73%</t>
@@ -2757,7 +2787,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D9B464-027F-4638-8CB9-7B28D9890DD1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{087A02D1-0A0F-40C0-BBBB-D1BA0858F717}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3377,10 +3407,10 @@
         <v>66</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3395,10 +3425,10 @@
         <v>49991</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>27</v>
@@ -3410,13 +3440,13 @@
         <v>78945</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M14" s="7">
         <v>130</v>
@@ -3425,13 +3455,13 @@
         <v>128936</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3487,7 +3517,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3499,13 +3529,13 @@
         <v>831</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -3514,13 +3544,13 @@
         <v>2007</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -3529,13 +3559,13 @@
         <v>2838</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3550,13 +3580,13 @@
         <v>919</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -3568,10 +3598,10 @@
         <v>39</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -3580,13 +3610,13 @@
         <v>6410</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3601,10 +3631,10 @@
         <v>53373</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>27</v>
@@ -3616,13 +3646,13 @@
         <v>66815</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M18" s="7">
         <v>128</v>
@@ -3631,13 +3661,13 @@
         <v>120188</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3693,7 +3723,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3711,7 +3741,7 @@
         <v>14</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -3720,13 +3750,13 @@
         <v>2287</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -3735,13 +3765,13 @@
         <v>2287</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3756,13 +3786,13 @@
         <v>4281</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -3771,13 +3801,13 @@
         <v>4607</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M21" s="7">
         <v>9</v>
@@ -3786,13 +3816,13 @@
         <v>8888</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3807,13 +3837,13 @@
         <v>25066</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H22" s="7">
         <v>33</v>
@@ -3822,13 +3852,13 @@
         <v>34353</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M22" s="7">
         <v>62</v>
@@ -3837,13 +3867,13 @@
         <v>59418</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3899,7 +3929,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3917,7 +3947,7 @@
         <v>14</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -3926,13 +3956,13 @@
         <v>1141</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -3941,13 +3971,13 @@
         <v>1141</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3962,13 +3992,13 @@
         <v>946</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -3977,13 +4007,13 @@
         <v>3739</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -3992,13 +4022,13 @@
         <v>4685</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4013,10 +4043,10 @@
         <v>46250</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>27</v>
@@ -4028,13 +4058,13 @@
         <v>65429</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M26" s="7">
         <v>111</v>
@@ -4043,13 +4073,13 @@
         <v>111680</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4105,7 +4135,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4117,13 +4147,13 @@
         <v>838</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -4132,13 +4162,13 @@
         <v>3057</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -4147,13 +4177,13 @@
         <v>3895</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4168,13 +4198,13 @@
         <v>1771</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -4183,13 +4213,13 @@
         <v>897</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M29" s="7">
         <v>3</v>
@@ -4198,13 +4228,13 @@
         <v>2668</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4219,13 +4249,13 @@
         <v>103318</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H30" s="7">
         <v>113</v>
@@ -4234,13 +4264,13 @@
         <v>113168</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M30" s="7">
         <v>218</v>
@@ -4249,13 +4279,13 @@
         <v>216486</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4311,7 +4341,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -4323,13 +4353,13 @@
         <v>3104</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H32" s="7">
         <v>8</v>
@@ -4338,13 +4368,13 @@
         <v>9553</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M32" s="7">
         <v>11</v>
@@ -4353,13 +4383,13 @@
         <v>12656</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4374,13 +4404,13 @@
         <v>12254</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="G33" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H33" s="7">
         <v>15</v>
@@ -4389,13 +4419,13 @@
         <v>16737</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M33" s="7">
         <v>29</v>
@@ -4404,13 +4434,13 @@
         <v>28991</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4425,13 +4455,13 @@
         <v>96535</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H34" s="7">
         <v>121</v>
@@ -4440,13 +4470,13 @@
         <v>126935</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M34" s="7">
         <v>220</v>
@@ -4455,13 +4485,13 @@
         <v>223471</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4529,13 +4559,13 @@
         <v>5692</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H36" s="7">
         <v>19</v>
@@ -4544,13 +4574,13 @@
         <v>21556</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M36" s="7">
         <v>25</v>
@@ -4559,13 +4589,13 @@
         <v>27249</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4580,13 +4610,13 @@
         <v>27753</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H37" s="7">
         <v>37</v>
@@ -4595,13 +4625,13 @@
         <v>40255</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M37" s="7">
         <v>68</v>
@@ -4610,13 +4640,13 @@
         <v>68008</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4631,13 +4661,13 @@
         <v>469020</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H38" s="7">
         <v>605</v>
@@ -4646,13 +4676,13 @@
         <v>615031</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M38" s="7">
         <v>1091</v>
@@ -4661,13 +4691,13 @@
         <v>1084051</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4723,7 +4753,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -4747,7 +4777,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{943F4BEC-552C-4927-8D20-81610A95A93B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C586C28-5439-4CB5-8080-CA982010AB3F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4764,7 +4794,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4869,39 +4899,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4914,39 +4944,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4959,39 +4989,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5004,39 +5034,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5053,13 +5083,13 @@
         <v>2130</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H8" s="7">
         <v>12</v>
@@ -5068,13 +5098,13 @@
         <v>14191</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M8" s="7">
         <v>14</v>
@@ -5083,10 +5113,10 @@
         <v>16321</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>230</v>
@@ -5259,13 +5289,13 @@
         <v>2988</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -5274,13 +5304,13 @@
         <v>6557</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="M12" s="7">
         <v>9</v>
@@ -5289,13 +5319,13 @@
         <v>9545</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5310,13 +5340,13 @@
         <v>4182</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -5325,13 +5355,13 @@
         <v>5208</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -5340,13 +5370,13 @@
         <v>9390</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5361,13 +5391,13 @@
         <v>48572</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H14" s="7">
         <v>64</v>
@@ -5453,7 +5483,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5516,13 +5546,13 @@
         <v>8468</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>46</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>283</v>
+        <v>20</v>
       </c>
       <c r="H17" s="7">
         <v>13</v>
@@ -5531,13 +5561,13 @@
         <v>13610</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="M17" s="7">
         <v>21</v>
@@ -5546,13 +5576,13 @@
         <v>22078</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5567,13 +5597,13 @@
         <v>99840</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="H18" s="7">
         <v>106</v>
@@ -5582,13 +5612,13 @@
         <v>110208</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M18" s="7">
         <v>196</v>
@@ -5597,10 +5627,10 @@
         <v>210049</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>295</v>
@@ -5659,7 +5689,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5677,7 +5707,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>297</v>
+        <v>100</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5692,7 +5722,7 @@
         <v>14</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -5701,13 +5731,13 @@
         <v>1035</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5722,13 +5752,13 @@
         <v>4570</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="H21" s="7">
         <v>13</v>
@@ -5737,13 +5767,13 @@
         <v>13179</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="M21" s="7">
         <v>17</v>
@@ -5752,13 +5782,13 @@
         <v>17750</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5773,13 +5803,13 @@
         <v>26007</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="H22" s="7">
         <v>35</v>
@@ -5788,13 +5818,13 @@
         <v>36676</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="M22" s="7">
         <v>58</v>
@@ -5803,13 +5833,13 @@
         <v>62683</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5865,7 +5895,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5877,13 +5907,13 @@
         <v>1057</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>231</v>
+        <v>319</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -5895,10 +5925,10 @@
         <v>320</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
@@ -5907,13 +5937,13 @@
         <v>4300</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5928,13 +5958,13 @@
         <v>5299</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -5943,13 +5973,13 @@
         <v>4207</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -5958,10 +5988,10 @@
         <v>9506</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>333</v>
@@ -6071,7 +6101,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6167,10 +6197,10 @@
         <v>357</v>
       </c>
       <c r="P29" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6185,13 +6215,13 @@
         <v>101750</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="H30" s="7">
         <v>114</v>
@@ -6200,13 +6230,13 @@
         <v>125352</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="M30" s="7">
         <v>206</v>
@@ -6215,13 +6245,13 @@
         <v>227103</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6277,7 +6307,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -6289,13 +6319,13 @@
         <v>1098</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="H32" s="7">
         <v>8</v>
@@ -6310,7 +6340,7 @@
         <v>370</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>371</v>
+        <v>133</v>
       </c>
       <c r="M32" s="7">
         <v>9</v>
@@ -6319,13 +6349,13 @@
         <v>9932</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="P32" s="7" t="s">
-        <v>373</v>
-      </c>
       <c r="Q32" s="7" t="s">
-        <v>374</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6340,13 +6370,13 @@
         <v>6582</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H33" s="7">
         <v>13</v>
@@ -6355,13 +6385,13 @@
         <v>14289</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>147</v>
+        <v>229</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>106</v>
+        <v>376</v>
       </c>
       <c r="M33" s="7">
         <v>18</v>
@@ -6370,13 +6400,13 @@
         <v>20871</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6391,13 +6421,13 @@
         <v>113072</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>383</v>
       </c>
       <c r="H34" s="7">
         <v>130</v>
@@ -6406,13 +6436,13 @@
         <v>141294</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M34" s="7">
         <v>230</v>
@@ -6421,13 +6451,13 @@
         <v>254366</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6495,13 +6525,13 @@
         <v>9340</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F36" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="H36" s="7">
         <v>42</v>
@@ -6510,13 +6540,13 @@
         <v>46663</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="M36" s="7">
         <v>51</v>
@@ -6525,13 +6555,13 @@
         <v>56003</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>350</v>
+        <v>393</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>394</v>
+        <v>202</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6546,10 +6576,10 @@
         <v>45087</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>396</v>
@@ -6561,13 +6591,13 @@
         <v>74828</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>371</v>
+        <v>397</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>398</v>
+        <v>109</v>
       </c>
       <c r="M37" s="7">
         <v>106</v>
@@ -6582,7 +6612,7 @@
         <v>400</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>401</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6597,13 +6627,13 @@
         <v>505210</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>404</v>
       </c>
       <c r="H38" s="7">
         <v>582</v>
@@ -6612,13 +6642,13 @@
         <v>621484</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>407</v>
       </c>
       <c r="M38" s="7">
         <v>1041</v>
@@ -6627,13 +6657,13 @@
         <v>1126694</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6689,7 +6719,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -6713,7 +6743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D859C4-2A7F-4FAA-9D93-2D8B0FDF895A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{919A81A8-4D6F-41AF-B462-29808BDA176F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6730,7 +6760,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6837,13 +6867,13 @@
         <v>794</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>412</v>
+        <v>176</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -6852,13 +6882,13 @@
         <v>3262</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>414</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -6867,13 +6897,13 @@
         <v>4056</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6888,13 +6918,13 @@
         <v>7511</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -6903,13 +6933,13 @@
         <v>10156</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="M5" s="7">
         <v>17</v>
@@ -6918,13 +6948,13 @@
         <v>17667</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6939,13 +6969,13 @@
         <v>30592</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>429</v>
       </c>
       <c r="H6" s="7">
         <v>32</v>
@@ -6954,28 +6984,28 @@
         <v>35972</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>430</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>432</v>
       </c>
       <c r="M6" s="7">
         <v>64</v>
       </c>
       <c r="N6" s="7">
-        <v>66564</v>
+        <v>66563</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7017,7 +7047,7 @@
         <v>85</v>
       </c>
       <c r="N7" s="7">
-        <v>88287</v>
+        <v>88286</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>29</v>
@@ -7049,7 +7079,7 @@
         <v>14</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -7058,13 +7088,13 @@
         <v>2430</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -7073,13 +7103,13 @@
         <v>2430</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>438</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7094,13 +7124,13 @@
         <v>2503</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>395</v>
+        <v>438</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -7109,13 +7139,13 @@
         <v>2614</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -7124,13 +7154,13 @@
         <v>5117</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>444</v>
+        <v>146</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7145,13 +7175,13 @@
         <v>84792</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="H10" s="7">
         <v>91</v>
@@ -7160,13 +7190,13 @@
         <v>110184</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>56</v>
+        <v>446</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="M10" s="7">
         <v>178</v>
@@ -7175,13 +7205,13 @@
         <v>194977</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>451</v>
+        <v>96</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7255,7 +7285,7 @@
         <v>14</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -7264,13 +7294,13 @@
         <v>4477</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>330</v>
+        <v>453</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -7279,13 +7309,13 @@
         <v>4477</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7300,10 +7330,10 @@
         <v>4348</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>459</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>460</v>
@@ -7366,7 +7396,7 @@
         <v>69123</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>470</v>
@@ -7384,10 +7414,10 @@
         <v>472</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>118</v>
+        <v>473</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7443,7 +7473,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7455,13 +7485,13 @@
         <v>2627</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>152</v>
+        <v>475</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -7470,13 +7500,13 @@
         <v>7180</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -7485,13 +7515,13 @@
         <v>9807</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>480</v>
+        <v>40</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7512,7 +7542,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -7521,10 +7551,10 @@
         <v>12503</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>484</v>
+        <v>210</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>485</v>
@@ -7539,10 +7569,10 @@
         <v>486</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>153</v>
+        <v>487</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7557,13 +7587,13 @@
         <v>60313</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H18" s="7">
         <v>60</v>
@@ -7572,13 +7602,13 @@
         <v>71892</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M18" s="7">
         <v>126</v>
@@ -7587,13 +7617,13 @@
         <v>132204</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>140</v>
+        <v>495</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7649,7 +7679,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7667,7 +7697,7 @@
         <v>14</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7682,7 +7712,7 @@
         <v>14</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>497</v>
+        <v>326</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -7697,7 +7727,7 @@
         <v>14</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7712,13 +7742,13 @@
         <v>799</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -7727,13 +7757,13 @@
         <v>2096</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>501</v>
+        <v>321</v>
       </c>
       <c r="M21" s="7">
         <v>3</v>
@@ -7748,7 +7778,7 @@
         <v>503</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>504</v>
+        <v>351</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7763,10 +7793,10 @@
         <v>41281</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>505</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>506</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>27</v>
@@ -7778,10 +7808,10 @@
         <v>48436</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>507</v>
+        <v>336</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>27</v>
@@ -7793,13 +7823,13 @@
         <v>89717</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>509</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7855,7 +7885,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7867,13 +7897,13 @@
         <v>2752</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>348</v>
+        <v>249</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>483</v>
+        <v>511</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -7882,10 +7912,10 @@
         <v>6041</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>513</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>457</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>514</v>
@@ -7951,7 +7981,7 @@
         <v>524</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>42</v>
+        <v>263</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>525</v>
@@ -7984,13 +8014,13 @@
         <v>56937</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>367</v>
+        <v>529</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M26" s="7">
         <v>91</v>
@@ -7999,13 +8029,13 @@
         <v>93536</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8061,7 +8091,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8073,13 +8103,13 @@
         <v>1804</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>484</v>
+        <v>536</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -8088,13 +8118,13 @@
         <v>3582</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>444</v>
+        <v>37</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>171</v>
+        <v>538</v>
       </c>
       <c r="M28" s="7">
         <v>5</v>
@@ -8103,13 +8133,13 @@
         <v>5386</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8124,13 +8154,13 @@
         <v>11608</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>15</v>
+        <v>542</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>539</v>
+        <v>518</v>
       </c>
       <c r="H29" s="7">
         <v>30</v>
@@ -8139,13 +8169,13 @@
         <v>36155</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>541</v>
+        <v>353</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="M29" s="7">
         <v>40</v>
@@ -8154,13 +8184,13 @@
         <v>47763</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>359</v>
+        <v>546</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8175,13 +8205,13 @@
         <v>98773</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="H30" s="7">
         <v>92</v>
@@ -8190,13 +8220,13 @@
         <v>107888</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>341</v>
+        <v>553</v>
       </c>
       <c r="M30" s="7">
         <v>189</v>
@@ -8205,13 +8235,13 @@
         <v>206661</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8267,7 +8297,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -8279,13 +8309,13 @@
         <v>867</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="H32" s="7">
         <v>6</v>
@@ -8294,13 +8324,13 @@
         <v>7502</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>78</v>
+        <v>560</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="M32" s="7">
         <v>7</v>
@@ -8309,13 +8339,13 @@
         <v>8369</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>153</v>
+        <v>452</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8330,13 +8360,13 @@
         <v>3409</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>262</v>
+        <v>563</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>83</v>
+        <v>564</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>300</v>
+        <v>110</v>
       </c>
       <c r="H33" s="7">
         <v>3</v>
@@ -8348,10 +8378,10 @@
         <v>275</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="M33" s="7">
         <v>7</v>
@@ -8360,13 +8390,13 @@
         <v>6834</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>560</v>
+        <v>43</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>324</v>
+        <v>567</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8381,13 +8411,13 @@
         <v>129892</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="H34" s="7">
         <v>133</v>
@@ -8396,13 +8426,13 @@
         <v>165371</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>50</v>
+        <v>574</v>
       </c>
       <c r="M34" s="7">
         <v>269</v>
@@ -8414,10 +8444,10 @@
         <v>28</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>271</v>
+        <v>575</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8485,13 +8515,13 @@
         <v>8843</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>321</v>
+        <v>577</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>67</v>
+        <v>578</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>443</v>
+        <v>579</v>
       </c>
       <c r="H36" s="7">
         <v>27</v>
@@ -8500,13 +8530,13 @@
         <v>34474</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>392</v>
+        <v>580</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>34</v>
+        <v>581</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>568</v>
+        <v>582</v>
       </c>
       <c r="M36" s="7">
         <v>37</v>
@@ -8515,13 +8545,13 @@
         <v>43317</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>256</v>
+        <v>583</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>441</v>
+        <v>81</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>555</v>
+        <v>584</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8539,10 +8569,10 @@
         <v>45</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>569</v>
+        <v>536</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>570</v>
+        <v>585</v>
       </c>
       <c r="H37" s="7">
         <v>65</v>
@@ -8551,13 +8581,13 @@
         <v>77655</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>170</v>
+        <v>587</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>572</v>
+        <v>588</v>
       </c>
       <c r="M37" s="7">
         <v>110</v>
@@ -8566,13 +8596,13 @@
         <v>118700</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>573</v>
+        <v>483</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>575</v>
+        <v>590</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8587,13 +8617,13 @@
         <v>541440</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>576</v>
+        <v>591</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>577</v>
+        <v>385</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>578</v>
+        <v>592</v>
       </c>
       <c r="H38" s="7">
         <v>563</v>
@@ -8602,13 +8632,13 @@
         <v>665802</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>579</v>
+        <v>593</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>580</v>
+        <v>594</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>581</v>
+        <v>595</v>
       </c>
       <c r="M38" s="7">
         <v>1135</v>
@@ -8617,13 +8647,13 @@
         <v>1207242</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>582</v>
+        <v>596</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>584</v>
+        <v>598</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8679,7 +8709,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -8703,7 +8733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684F0CAD-F1EA-45A5-AEFE-2BABDF659AA2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D80F55F-170A-4FFA-AA3F-3D4D5F374CEE}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8720,7 +8750,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>585</v>
+        <v>599</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8848,7 +8878,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>586</v>
+        <v>600</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -8863,7 +8893,7 @@
         <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>324</v>
+        <v>601</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8893,13 +8923,13 @@
         <v>3289</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>587</v>
+        <v>602</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>588</v>
+        <v>603</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -8908,13 +8938,13 @@
         <v>3289</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>589</v>
+        <v>604</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>590</v>
+        <v>605</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>17</v>
+        <v>606</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8932,7 +8962,7 @@
         <v>27</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>591</v>
+        <v>607</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>29</v>
@@ -8944,13 +8974,13 @@
         <v>58930</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>216</v>
+        <v>609</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>593</v>
+        <v>610</v>
       </c>
       <c r="M6" s="7">
         <v>209</v>
@@ -8959,13 +8989,13 @@
         <v>110850</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>594</v>
+        <v>611</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>595</v>
+        <v>612</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9039,7 +9069,7 @@
         <v>14</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
@@ -9048,13 +9078,13 @@
         <v>5250</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>596</v>
+        <v>613</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>597</v>
+        <v>614</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>598</v>
+        <v>615</v>
       </c>
       <c r="M8" s="7">
         <v>8</v>
@@ -9063,13 +9093,13 @@
         <v>5250</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>599</v>
+        <v>562</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>600</v>
+        <v>616</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9084,13 +9114,13 @@
         <v>2964</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>602</v>
+        <v>618</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>91</v>
+        <v>619</v>
       </c>
       <c r="H9" s="7">
         <v>23</v>
@@ -9099,13 +9129,13 @@
         <v>14722</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>603</v>
+        <v>620</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>604</v>
+        <v>621</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>605</v>
+        <v>622</v>
       </c>
       <c r="M9" s="7">
         <v>26</v>
@@ -9114,13 +9144,13 @@
         <v>17686</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>606</v>
+        <v>623</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>607</v>
+        <v>624</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9135,13 +9165,13 @@
         <v>83350</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>608</v>
+        <v>625</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>609</v>
+        <v>626</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>610</v>
+        <v>627</v>
       </c>
       <c r="H10" s="7">
         <v>191</v>
@@ -9150,13 +9180,13 @@
         <v>120736</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>611</v>
+        <v>628</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>612</v>
+        <v>629</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>613</v>
+        <v>630</v>
       </c>
       <c r="M10" s="7">
         <v>283</v>
@@ -9165,13 +9195,13 @@
         <v>204085</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>614</v>
+        <v>631</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>615</v>
+        <v>632</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>616</v>
+        <v>633</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9239,10 +9269,10 @@
         <v>4295</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>617</v>
+        <v>459</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>234</v>
@@ -9254,13 +9284,13 @@
         <v>4008</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>207</v>
+        <v>634</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>618</v>
+        <v>635</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>619</v>
+        <v>636</v>
       </c>
       <c r="M12" s="7">
         <v>15</v>
@@ -9269,13 +9299,13 @@
         <v>8303</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>620</v>
+        <v>637</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>621</v>
+        <v>638</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9290,13 +9320,13 @@
         <v>6131</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>622</v>
+        <v>175</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>623</v>
+        <v>639</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>624</v>
+        <v>640</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -9305,13 +9335,13 @@
         <v>13904</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>625</v>
+        <v>641</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>626</v>
+        <v>642</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>627</v>
+        <v>643</v>
       </c>
       <c r="M13" s="7">
         <v>35</v>
@@ -9320,13 +9350,13 @@
         <v>20035</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>628</v>
+        <v>644</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>629</v>
+        <v>645</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>630</v>
+        <v>646</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9341,13 +9371,13 @@
         <v>67175</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>631</v>
+        <v>647</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>25</v>
+        <v>648</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>632</v>
+        <v>649</v>
       </c>
       <c r="H14" s="7">
         <v>136</v>
@@ -9356,13 +9386,13 @@
         <v>77039</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>361</v>
+        <v>650</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>633</v>
+        <v>651</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>634</v>
+        <v>652</v>
       </c>
       <c r="M14" s="7">
         <v>241</v>
@@ -9371,13 +9401,13 @@
         <v>144214</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>635</v>
+        <v>653</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>636</v>
+        <v>654</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>637</v>
+        <v>655</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9433,7 +9463,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -9445,13 +9475,13 @@
         <v>688</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>503</v>
+        <v>656</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>638</v>
+        <v>657</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -9460,13 +9490,13 @@
         <v>6895</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>639</v>
+        <v>658</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>640</v>
+        <v>659</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>499</v>
+        <v>133</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -9475,13 +9505,13 @@
         <v>7583</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>641</v>
+        <v>660</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>642</v>
+        <v>661</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>643</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9496,13 +9526,13 @@
         <v>8154</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>284</v>
+        <v>82</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>644</v>
+        <v>662</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
@@ -9511,13 +9541,13 @@
         <v>12129</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>645</v>
+        <v>663</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>646</v>
+        <v>78</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>647</v>
+        <v>664</v>
       </c>
       <c r="M17" s="7">
         <v>41</v>
@@ -9526,13 +9556,13 @@
         <v>20283</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>648</v>
+        <v>665</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>649</v>
+        <v>666</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>650</v>
+        <v>667</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9547,13 +9577,13 @@
         <v>69963</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>651</v>
+        <v>668</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>652</v>
+        <v>669</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>471</v>
+        <v>670</v>
       </c>
       <c r="H18" s="7">
         <v>213</v>
@@ -9562,13 +9592,13 @@
         <v>91432</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>653</v>
+        <v>671</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>654</v>
+        <v>672</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>655</v>
+        <v>673</v>
       </c>
       <c r="M18" s="7">
         <v>317</v>
@@ -9577,13 +9607,13 @@
         <v>161394</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>656</v>
+        <v>674</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>657</v>
+        <v>675</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>658</v>
+        <v>676</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9639,7 +9669,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -9651,13 +9681,13 @@
         <v>1045</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>659</v>
+        <v>677</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -9666,13 +9696,13 @@
         <v>778</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>660</v>
+        <v>678</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>661</v>
+        <v>679</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -9681,13 +9711,13 @@
         <v>1824</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>662</v>
+        <v>680</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>663</v>
+        <v>681</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>664</v>
+        <v>682</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9702,13 +9732,13 @@
         <v>4411</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>665</v>
+        <v>683</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>84</v>
+        <v>684</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>666</v>
+        <v>685</v>
       </c>
       <c r="H21" s="7">
         <v>31</v>
@@ -9717,13 +9747,13 @@
         <v>13432</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>669</v>
+        <v>688</v>
       </c>
       <c r="M21" s="7">
         <v>39</v>
@@ -9732,13 +9762,13 @@
         <v>17843</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>670</v>
+        <v>689</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>671</v>
+        <v>44</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9753,13 +9783,13 @@
         <v>32874</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>673</v>
+        <v>691</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>674</v>
+        <v>692</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>675</v>
+        <v>693</v>
       </c>
       <c r="H22" s="7">
         <v>132</v>
@@ -9768,13 +9798,13 @@
         <v>51270</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>676</v>
+        <v>694</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>678</v>
+        <v>696</v>
       </c>
       <c r="M22" s="7">
         <v>193</v>
@@ -9783,13 +9813,13 @@
         <v>84145</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>679</v>
+        <v>697</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>243</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>680</v>
+        <v>698</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9845,7 +9875,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -9857,13 +9887,13 @@
         <v>5423</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>681</v>
+        <v>699</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>682</v>
+        <v>700</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>683</v>
+        <v>546</v>
       </c>
       <c r="H24" s="7">
         <v>14</v>
@@ -9872,13 +9902,13 @@
         <v>5569</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>684</v>
+        <v>398</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>685</v>
+        <v>701</v>
       </c>
       <c r="M24" s="7">
         <v>26</v>
@@ -9887,13 +9917,13 @@
         <v>10992</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>442</v>
+        <v>702</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>686</v>
+        <v>703</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>687</v>
+        <v>415</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9908,13 +9938,13 @@
         <v>5410</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>688</v>
+        <v>704</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>200</v>
+        <v>705</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -9923,13 +9953,13 @@
         <v>2856</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>689</v>
+        <v>706</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>522</v>
+        <v>249</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>690</v>
+        <v>440</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
@@ -9938,13 +9968,13 @@
         <v>8266</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>347</v>
+        <v>707</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>154</v>
+        <v>708</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>691</v>
+        <v>709</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9959,13 +9989,13 @@
         <v>52350</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>692</v>
+        <v>710</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>693</v>
+        <v>711</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>694</v>
+        <v>712</v>
       </c>
       <c r="H26" s="7">
         <v>156</v>
@@ -9974,13 +10004,13 @@
         <v>61428</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>695</v>
+        <v>713</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>696</v>
+        <v>714</v>
       </c>
       <c r="M26" s="7">
         <v>267</v>
@@ -9989,13 +10019,13 @@
         <v>113779</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>697</v>
+        <v>715</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>698</v>
+        <v>716</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>699</v>
+        <v>717</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10051,7 +10081,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -10063,13 +10093,13 @@
         <v>2383</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>700</v>
+        <v>373</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>701</v>
+        <v>718</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>702</v>
+        <v>719</v>
       </c>
       <c r="H28" s="7">
         <v>13</v>
@@ -10078,13 +10108,13 @@
         <v>8765</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>703</v>
+        <v>720</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>704</v>
+        <v>721</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M28" s="7">
         <v>16</v>
@@ -10093,13 +10123,13 @@
         <v>11148</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>705</v>
+        <v>722</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>590</v>
+        <v>605</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>706</v>
+        <v>723</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10114,13 +10144,13 @@
         <v>20303</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>707</v>
+        <v>724</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>708</v>
+        <v>725</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>709</v>
+        <v>726</v>
       </c>
       <c r="H29" s="7">
         <v>41</v>
@@ -10129,13 +10159,13 @@
         <v>26171</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>710</v>
+        <v>727</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>711</v>
+        <v>389</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>712</v>
+        <v>728</v>
       </c>
       <c r="M29" s="7">
         <v>66</v>
@@ -10144,13 +10174,13 @@
         <v>46474</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>713</v>
+        <v>729</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>714</v>
+        <v>730</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>715</v>
+        <v>731</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10165,13 +10195,13 @@
         <v>108154</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>716</v>
+        <v>594</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>717</v>
+        <v>732</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>718</v>
+        <v>733</v>
       </c>
       <c r="H30" s="7">
         <v>188</v>
@@ -10180,13 +10210,13 @@
         <v>223907</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>719</v>
+        <v>597</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>720</v>
+        <v>734</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>721</v>
+        <v>735</v>
       </c>
       <c r="M30" s="7">
         <v>328</v>
@@ -10195,13 +10225,13 @@
         <v>332061</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>723</v>
+        <v>737</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>724</v>
+        <v>738</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10257,7 +10287,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -10269,13 +10299,13 @@
         <v>4722</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>725</v>
+        <v>479</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>726</v>
+        <v>739</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>727</v>
+        <v>740</v>
       </c>
       <c r="H32" s="7">
         <v>18</v>
@@ -10284,13 +10314,13 @@
         <v>14063</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>728</v>
+        <v>741</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>729</v>
+        <v>301</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>730</v>
+        <v>742</v>
       </c>
       <c r="M32" s="7">
         <v>24</v>
@@ -10299,13 +10329,13 @@
         <v>18785</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>731</v>
+        <v>344</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>732</v>
+        <v>171</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10320,13 +10350,13 @@
         <v>9060</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>686</v>
+        <v>703</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>733</v>
+        <v>743</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>734</v>
+        <v>744</v>
       </c>
       <c r="H33" s="7">
         <v>34</v>
@@ -10335,13 +10365,13 @@
         <v>23103</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>735</v>
+        <v>745</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>737</v>
+        <v>747</v>
       </c>
       <c r="M33" s="7">
         <v>47</v>
@@ -10353,10 +10383,10 @@
         <v>231</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>738</v>
+        <v>748</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>739</v>
+        <v>749</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10371,13 +10401,13 @@
         <v>155452</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>741</v>
+        <v>751</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>742</v>
+        <v>752</v>
       </c>
       <c r="H34" s="7">
         <v>290</v>
@@ -10386,13 +10416,13 @@
         <v>185233</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>743</v>
+        <v>753</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>655</v>
+        <v>673</v>
       </c>
       <c r="M34" s="7">
         <v>505</v>
@@ -10401,13 +10431,13 @@
         <v>340685</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>744</v>
+        <v>754</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>745</v>
+        <v>755</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>746</v>
+        <v>497</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10475,13 +10505,13 @@
         <v>18557</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>747</v>
+        <v>756</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>375</v>
+        <v>757</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>748</v>
+        <v>758</v>
       </c>
       <c r="H36" s="7">
         <v>78</v>
@@ -10490,13 +10520,13 @@
         <v>45327</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>749</v>
+        <v>759</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>727</v>
+        <v>740</v>
       </c>
       <c r="M36" s="7">
         <v>109</v>
@@ -10505,13 +10535,13 @@
         <v>63884</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>751</v>
+        <v>761</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>752</v>
+        <v>762</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>753</v>
+        <v>763</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10526,13 +10556,13 @@
         <v>56434</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>208</v>
+        <v>764</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>754</v>
+        <v>765</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>755</v>
+        <v>766</v>
       </c>
       <c r="H37" s="7">
         <v>195</v>
@@ -10544,10 +10574,10 @@
         <v>234</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
       <c r="M37" s="7">
         <v>279</v>
@@ -10556,13 +10586,13 @@
         <v>166038</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>758</v>
+        <v>500</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>759</v>
+        <v>769</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>760</v>
+        <v>770</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10577,13 +10607,13 @@
         <v>621238</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>761</v>
+        <v>771</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>403</v>
+        <v>494</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>762</v>
+        <v>772</v>
       </c>
       <c r="H38" s="7">
         <v>1432</v>
@@ -10592,13 +10622,13 @@
         <v>869976</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>763</v>
+        <v>773</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>765</v>
+        <v>775</v>
       </c>
       <c r="M38" s="7">
         <v>2343</v>
@@ -10607,13 +10637,13 @@
         <v>1491214</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>766</v>
+        <v>776</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>767</v>
+        <v>777</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>768</v>
+        <v>778</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10669,7 +10699,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5409-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5409-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{413CB6C5-E199-49FC-BB29-07FFB485C737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F3D62E6-58CE-4A51-917D-D19DBAB3FAAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BBB19CDB-1971-4E6B-B608-F86AB038BEB8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4E930842-0147-463A-B25A-84E6D04237F9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -80,7 +80,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>12,96%</t>
+    <t>11,52%</t>
   </si>
   <si>
     <t>0%</t>
@@ -92,7 +92,7 @@
     <t>1,23%</t>
   </si>
   <si>
-    <t>6,36%</t>
+    <t>6,49%</t>
   </si>
   <si>
     <t>Pocas veces</t>
@@ -107,2275 +107,2275 @@
     <t>2,28%</t>
   </si>
   <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>74,13%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
     <t>7,14%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se le escapa la orina (incontinencia) en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>Población según si se le escapa la orina (incontinencia) en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>63,87%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>Población según si se le escapa la orina (incontinencia) en 2023 (Tasa respuesta: 31,24%)</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
   </si>
   <si>
     <t>6,41%</t>
   </si>
   <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
   </si>
   <si>
     <t>5,76%</t>
   </si>
   <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
   </si>
   <si>
     <t>90,98%</t>
   </si>
   <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se le escapa la orina (incontinencia) en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>Población según si se le escapa la orina (incontinencia) en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>67,61%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>Población según si se le escapa la orina (incontinencia) en 2023 (Tasa respuesta: 31,24%)</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>74,65%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>76,52%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
     <t>84,88%</t>
   </si>
   <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
   </si>
   <si>
     <t>86,64%</t>
   </si>
   <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
   </si>
 </sst>
 </file>
@@ -2787,7 +2787,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{087A02D1-0A0F-40C0-BBBB-D1BA0858F717}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D52B52F7-D90C-4B0B-A108-CD4341EE3869}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3183,13 +3183,13 @@
         <v>6496</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="M9" s="7">
         <v>11</v>
@@ -3198,13 +3198,13 @@
         <v>11424</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3219,13 +3219,13 @@
         <v>61726</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="H10" s="7">
         <v>89</v>
@@ -3234,13 +3234,13 @@
         <v>90155</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="M10" s="7">
         <v>149</v>
@@ -3249,13 +3249,13 @@
         <v>151881</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3311,7 +3311,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3329,7 +3329,7 @@
         <v>14</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -3338,13 +3338,13 @@
         <v>2288</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -3353,13 +3353,13 @@
         <v>2288</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3374,13 +3374,13 @@
         <v>949</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -3389,13 +3389,13 @@
         <v>2288</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -3404,10 +3404,10 @@
         <v>3237</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>67</v>
@@ -3562,10 +3562,10 @@
         <v>81</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3580,13 +3580,13 @@
         <v>919</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -3598,10 +3598,10 @@
         <v>39</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -3610,13 +3610,13 @@
         <v>6410</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3631,10 +3631,10 @@
         <v>53373</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>27</v>
@@ -3646,13 +3646,13 @@
         <v>66815</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M18" s="7">
         <v>128</v>
@@ -3661,13 +3661,13 @@
         <v>120188</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3723,7 +3723,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3741,7 +3741,7 @@
         <v>14</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -3750,13 +3750,13 @@
         <v>2287</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -3765,13 +3765,13 @@
         <v>2287</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3786,13 +3786,13 @@
         <v>4281</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -3801,13 +3801,13 @@
         <v>4607</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M21" s="7">
         <v>9</v>
@@ -3816,13 +3816,13 @@
         <v>8888</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3837,13 +3837,13 @@
         <v>25066</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H22" s="7">
         <v>33</v>
@@ -3852,13 +3852,13 @@
         <v>34353</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M22" s="7">
         <v>62</v>
@@ -3867,13 +3867,13 @@
         <v>59418</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3929,7 +3929,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3947,7 +3947,7 @@
         <v>14</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -3956,13 +3956,13 @@
         <v>1141</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -3971,13 +3971,13 @@
         <v>1141</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3992,13 +3992,13 @@
         <v>946</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -4007,13 +4007,13 @@
         <v>3739</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -4022,13 +4022,13 @@
         <v>4685</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4043,10 +4043,10 @@
         <v>46250</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>27</v>
@@ -4058,13 +4058,13 @@
         <v>65429</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M26" s="7">
         <v>111</v>
@@ -4073,13 +4073,13 @@
         <v>111680</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4135,7 +4135,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4147,13 +4147,13 @@
         <v>838</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -4162,13 +4162,13 @@
         <v>3057</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -4177,13 +4177,13 @@
         <v>3895</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4198,13 +4198,13 @@
         <v>1771</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -4213,13 +4213,13 @@
         <v>897</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M29" s="7">
         <v>3</v>
@@ -4228,13 +4228,13 @@
         <v>2668</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4249,13 +4249,13 @@
         <v>103318</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H30" s="7">
         <v>113</v>
@@ -4264,13 +4264,13 @@
         <v>113168</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M30" s="7">
         <v>218</v>
@@ -4279,13 +4279,13 @@
         <v>216486</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4341,7 +4341,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -4353,13 +4353,13 @@
         <v>3104</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H32" s="7">
         <v>8</v>
@@ -4368,13 +4368,13 @@
         <v>9553</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M32" s="7">
         <v>11</v>
@@ -4383,13 +4383,13 @@
         <v>12656</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4404,13 +4404,13 @@
         <v>12254</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H33" s="7">
         <v>15</v>
@@ -4419,13 +4419,13 @@
         <v>16737</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>17</v>
+        <v>181</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M33" s="7">
         <v>29</v>
@@ -4434,13 +4434,13 @@
         <v>28991</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4455,13 +4455,13 @@
         <v>96535</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H34" s="7">
         <v>121</v>
@@ -4470,13 +4470,13 @@
         <v>126935</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M34" s="7">
         <v>220</v>
@@ -4485,13 +4485,13 @@
         <v>223471</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4559,13 +4559,13 @@
         <v>5692</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H36" s="7">
         <v>19</v>
@@ -4574,13 +4574,13 @@
         <v>21556</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>197</v>
+        <v>129</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M36" s="7">
         <v>25</v>
@@ -4589,13 +4589,13 @@
         <v>27249</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4610,13 +4610,13 @@
         <v>27753</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H37" s="7">
         <v>37</v>
@@ -4625,13 +4625,13 @@
         <v>40255</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M37" s="7">
         <v>68</v>
@@ -4640,13 +4640,13 @@
         <v>68008</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4661,13 +4661,13 @@
         <v>469020</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H38" s="7">
         <v>605</v>
@@ -4676,10 +4676,10 @@
         <v>615031</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>216</v>
@@ -4691,13 +4691,13 @@
         <v>1084051</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4753,7 +4753,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -4777,7 +4777,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C586C28-5439-4CB5-8080-CA982010AB3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA9327E3-7CD1-4153-9B2D-9FABF46BC3E9}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4794,7 +4794,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4899,39 +4899,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4944,39 +4944,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4989,39 +4989,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5034,39 +5034,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5083,13 +5083,13 @@
         <v>2130</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H8" s="7">
         <v>12</v>
@@ -5098,13 +5098,13 @@
         <v>14191</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M8" s="7">
         <v>14</v>
@@ -5113,13 +5113,13 @@
         <v>16321</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5134,13 +5134,13 @@
         <v>6505</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="H9" s="7">
         <v>10</v>
@@ -5149,13 +5149,13 @@
         <v>10912</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M9" s="7">
         <v>14</v>
@@ -5164,13 +5164,13 @@
         <v>17417</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5185,13 +5185,13 @@
         <v>70567</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>242</v>
+        <v>73</v>
       </c>
       <c r="H10" s="7">
         <v>71</v>
@@ -5200,13 +5200,13 @@
         <v>76990</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="M10" s="7">
         <v>134</v>
@@ -5215,13 +5215,13 @@
         <v>147558</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5277,7 +5277,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5289,13 +5289,13 @@
         <v>2988</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>126</v>
+        <v>246</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -5304,13 +5304,13 @@
         <v>6557</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M12" s="7">
         <v>9</v>
@@ -5319,13 +5319,13 @@
         <v>9545</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>256</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5340,13 +5340,13 @@
         <v>4182</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -5355,13 +5355,13 @@
         <v>5208</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -5370,13 +5370,13 @@
         <v>9390</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5391,13 +5391,13 @@
         <v>48572</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H14" s="7">
         <v>64</v>
@@ -5406,13 +5406,13 @@
         <v>68203</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="M14" s="7">
         <v>111</v>
@@ -5421,13 +5421,13 @@
         <v>116775</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5501,7 +5501,7 @@
         <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -5510,13 +5510,13 @@
         <v>10650</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>277</v>
+        <v>204</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -5525,13 +5525,13 @@
         <v>10650</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5546,13 +5546,13 @@
         <v>8468</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>182</v>
+        <v>278</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>20</v>
+        <v>280</v>
       </c>
       <c r="H17" s="7">
         <v>13</v>
@@ -5561,13 +5561,13 @@
         <v>13610</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>88</v>
+        <v>281</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="M17" s="7">
         <v>21</v>
@@ -5576,10 +5576,10 @@
         <v>22078</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>286</v>
@@ -5689,7 +5689,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5707,7 +5707,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>100</v>
+        <v>297</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5722,7 +5722,7 @@
         <v>14</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -5731,13 +5731,13 @@
         <v>1035</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>299</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5895,7 +5895,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5925,10 +5925,10 @@
         <v>320</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>77</v>
+        <v>321</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
@@ -5937,13 +5937,13 @@
         <v>4300</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5958,13 +5958,13 @@
         <v>5299</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -5973,13 +5973,13 @@
         <v>4207</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -5988,13 +5988,13 @@
         <v>9506</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6009,13 +6009,13 @@
         <v>45400</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H26" s="7">
         <v>62</v>
@@ -6024,13 +6024,13 @@
         <v>62762</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M26" s="7">
         <v>106</v>
@@ -6039,13 +6039,13 @@
         <v>108162</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6101,7 +6101,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6113,13 +6113,13 @@
         <v>1032</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -6128,13 +6128,13 @@
         <v>3188</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -6143,13 +6143,13 @@
         <v>4220</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>350</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6197,10 +6197,10 @@
         <v>357</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>202</v>
+        <v>358</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6215,13 +6215,13 @@
         <v>101750</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H30" s="7">
         <v>114</v>
@@ -6230,13 +6230,13 @@
         <v>125352</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M30" s="7">
         <v>206</v>
@@ -6245,13 +6245,13 @@
         <v>227103</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6307,7 +6307,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -6319,13 +6319,13 @@
         <v>1098</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H32" s="7">
         <v>8</v>
@@ -6334,13 +6334,13 @@
         <v>8834</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>133</v>
+        <v>372</v>
       </c>
       <c r="M32" s="7">
         <v>9</v>
@@ -6349,13 +6349,13 @@
         <v>9932</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>372</v>
+        <v>62</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>260</v>
+        <v>373</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6370,13 +6370,13 @@
         <v>6582</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H33" s="7">
         <v>13</v>
@@ -6385,13 +6385,13 @@
         <v>14289</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>229</v>
+        <v>19</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M33" s="7">
         <v>18</v>
@@ -6400,13 +6400,13 @@
         <v>20871</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>153</v>
+        <v>379</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6421,13 +6421,13 @@
         <v>113072</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="H34" s="7">
         <v>130</v>
@@ -6436,13 +6436,13 @@
         <v>141294</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M34" s="7">
         <v>230</v>
@@ -6451,13 +6451,13 @@
         <v>254366</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6525,13 +6525,13 @@
         <v>9340</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>388</v>
+        <v>145</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H36" s="7">
         <v>42</v>
@@ -6540,13 +6540,13 @@
         <v>46663</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>392</v>
+        <v>85</v>
       </c>
       <c r="M36" s="7">
         <v>51</v>
@@ -6558,10 +6558,10 @@
         <v>393</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>196</v>
+        <v>394</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>202</v>
+        <v>395</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6576,13 +6576,13 @@
         <v>45087</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="H37" s="7">
         <v>70</v>
@@ -6591,13 +6591,13 @@
         <v>74828</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>109</v>
+        <v>401</v>
       </c>
       <c r="M37" s="7">
         <v>106</v>
@@ -6606,13 +6606,13 @@
         <v>119915</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6627,13 +6627,13 @@
         <v>505210</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>403</v>
+        <v>24</v>
       </c>
       <c r="H38" s="7">
         <v>582</v>
@@ -6642,13 +6642,13 @@
         <v>621484</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="M38" s="7">
         <v>1041</v>
@@ -6657,13 +6657,13 @@
         <v>1126694</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6719,7 +6719,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -6743,7 +6743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{919A81A8-4D6F-41AF-B462-29808BDA176F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002887F5-0A02-4448-81FF-359451E9B55E}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6760,7 +6760,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6873,7 +6873,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>176</v>
+        <v>413</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -6882,13 +6882,13 @@
         <v>3262</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>415</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -6897,13 +6897,13 @@
         <v>4056</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6918,13 +6918,13 @@
         <v>7511</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -6933,13 +6933,13 @@
         <v>10156</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="M5" s="7">
         <v>17</v>
@@ -6948,13 +6948,13 @@
         <v>17667</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6969,13 +6969,13 @@
         <v>30592</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="H6" s="7">
         <v>32</v>
@@ -6984,28 +6984,28 @@
         <v>35972</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="M6" s="7">
         <v>64</v>
       </c>
       <c r="N6" s="7">
-        <v>66563</v>
+        <v>66564</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7047,7 +7047,7 @@
         <v>85</v>
       </c>
       <c r="N7" s="7">
-        <v>88286</v>
+        <v>88287</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>29</v>
@@ -7079,7 +7079,7 @@
         <v>14</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -7088,13 +7088,13 @@
         <v>2430</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -7103,13 +7103,13 @@
         <v>2430</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>38</v>
+        <v>440</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7124,13 +7124,13 @@
         <v>2503</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -7139,13 +7139,13 @@
         <v>2614</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -7154,13 +7154,13 @@
         <v>5117</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>146</v>
+        <v>447</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7175,13 +7175,13 @@
         <v>84792</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="H10" s="7">
         <v>91</v>
@@ -7190,13 +7190,13 @@
         <v>110184</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="M10" s="7">
         <v>178</v>
@@ -7205,13 +7205,13 @@
         <v>194977</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>96</v>
+        <v>455</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7267,7 +7267,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -7285,7 +7285,7 @@
         <v>14</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -7294,13 +7294,13 @@
         <v>4477</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -7309,13 +7309,13 @@
         <v>4477</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>457</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7330,13 +7330,13 @@
         <v>4348</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -7345,13 +7345,13 @@
         <v>6297</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>462</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -7360,13 +7360,13 @@
         <v>10645</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7381,13 +7381,13 @@
         <v>59198</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="H14" s="7">
         <v>61</v>
@@ -7399,10 +7399,10 @@
         <v>293</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="M14" s="7">
         <v>128</v>
@@ -7411,13 +7411,13 @@
         <v>128321</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7485,13 +7485,13 @@
         <v>2627</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>476</v>
+        <v>35</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -7500,13 +7500,13 @@
         <v>7180</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>479</v>
+        <v>231</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -7515,13 +7515,13 @@
         <v>9807</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>40</v>
+        <v>157</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7536,13 +7536,13 @@
         <v>1772</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -7551,13 +7551,13 @@
         <v>12503</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>210</v>
+        <v>487</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
@@ -7566,13 +7566,13 @@
         <v>14274</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>487</v>
+        <v>15</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7587,13 +7587,13 @@
         <v>60313</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="H18" s="7">
         <v>60</v>
@@ -7602,13 +7602,13 @@
         <v>71892</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="M18" s="7">
         <v>126</v>
@@ -7617,13 +7617,13 @@
         <v>132204</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>495</v>
+        <v>139</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7679,7 +7679,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7697,7 +7697,7 @@
         <v>14</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7712,7 +7712,7 @@
         <v>14</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -7742,13 +7742,13 @@
         <v>799</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -7757,13 +7757,13 @@
         <v>2096</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>501</v>
+        <v>154</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>321</v>
+        <v>502</v>
       </c>
       <c r="M21" s="7">
         <v>3</v>
@@ -7772,13 +7772,13 @@
         <v>2895</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>502</v>
+        <v>253</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>503</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>351</v>
+        <v>504</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7793,10 +7793,10 @@
         <v>41281</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>27</v>
@@ -7808,10 +7808,10 @@
         <v>48436</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>336</v>
+        <v>507</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>27</v>
@@ -7823,13 +7823,13 @@
         <v>89717</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7885,7 +7885,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7897,13 +7897,13 @@
         <v>2752</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>510</v>
+        <v>358</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>249</v>
+        <v>60</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -7912,13 +7912,13 @@
         <v>6041</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M24" s="7">
         <v>8</v>
@@ -7927,13 +7927,13 @@
         <v>8792</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7948,13 +7948,13 @@
         <v>9096</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -7963,10 +7963,10 @@
         <v>4410</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>522</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>523</v>
@@ -7978,10 +7978,10 @@
         <v>13506</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>524</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>525</v>
@@ -8091,7 +8091,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8121,10 +8121,10 @@
         <v>537</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>37</v>
+        <v>538</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M28" s="7">
         <v>5</v>
@@ -8133,13 +8133,13 @@
         <v>5386</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>152</v>
+        <v>66</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8154,13 +8154,13 @@
         <v>11608</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>518</v>
+        <v>544</v>
       </c>
       <c r="H29" s="7">
         <v>30</v>
@@ -8169,13 +8169,13 @@
         <v>36155</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>353</v>
+        <v>546</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="M29" s="7">
         <v>40</v>
@@ -8184,13 +8184,13 @@
         <v>47763</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8205,13 +8205,13 @@
         <v>98773</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="H30" s="7">
         <v>92</v>
@@ -8220,13 +8220,13 @@
         <v>107888</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="M30" s="7">
         <v>189</v>
@@ -8235,13 +8235,13 @@
         <v>206661</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8297,7 +8297,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -8309,13 +8309,13 @@
         <v>867</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="H32" s="7">
         <v>6</v>
@@ -8324,13 +8324,13 @@
         <v>7502</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="M32" s="7">
         <v>7</v>
@@ -8342,10 +8342,10 @@
         <v>79</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>562</v>
+        <v>195</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>452</v>
+        <v>565</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8360,13 +8360,13 @@
         <v>3409</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>563</v>
+        <v>258</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>110</v>
+        <v>566</v>
       </c>
       <c r="H33" s="7">
         <v>3</v>
@@ -8375,13 +8375,13 @@
         <v>3424</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="M33" s="7">
         <v>7</v>
@@ -8390,13 +8390,13 @@
         <v>6834</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>43</v>
+        <v>569</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8411,13 +8411,13 @@
         <v>129892</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="H34" s="7">
         <v>133</v>
@@ -8426,13 +8426,13 @@
         <v>165371</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="M34" s="7">
         <v>269</v>
@@ -8444,10 +8444,10 @@
         <v>28</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8515,13 +8515,13 @@
         <v>8843</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>577</v>
+        <v>321</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>578</v>
+        <v>37</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H36" s="7">
         <v>27</v>
@@ -8530,7 +8530,7 @@
         <v>34474</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>580</v>
+        <v>210</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>581</v>
@@ -8548,10 +8548,10 @@
         <v>583</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>81</v>
+        <v>584</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>584</v>
+        <v>393</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8566,13 +8566,13 @@
         <v>41045</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>536</v>
+        <v>585</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H37" s="7">
         <v>65</v>
@@ -8581,13 +8581,13 @@
         <v>77655</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="M37" s="7">
         <v>110</v>
@@ -8596,13 +8596,13 @@
         <v>118700</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>483</v>
+        <v>78</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8617,13 +8617,13 @@
         <v>541440</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>385</v>
+        <v>431</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H38" s="7">
         <v>563</v>
@@ -8632,13 +8632,13 @@
         <v>665802</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>595</v>
+        <v>137</v>
       </c>
       <c r="M38" s="7">
         <v>1135</v>
@@ -8709,7 +8709,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -8733,7 +8733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D80F55F-170A-4FFA-AA3F-3D4D5F374CEE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718F5E60-998F-42D6-AC9F-81496927A007}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8893,7 +8893,7 @@
         <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>601</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8923,10 +8923,10 @@
         <v>3289</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>602</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>537</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>603</v>
@@ -8989,10 +8989,10 @@
         <v>110850</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>611</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>572</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>612</v>
@@ -9069,7 +9069,7 @@
         <v>14</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
@@ -9093,13 +9093,13 @@
         <v>5250</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>562</v>
+        <v>605</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>616</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9114,13 +9114,13 @@
         <v>2964</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>617</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>618</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>619</v>
       </c>
       <c r="H9" s="7">
         <v>23</v>
@@ -9129,13 +9129,13 @@
         <v>14722</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>620</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>621</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>622</v>
       </c>
       <c r="M9" s="7">
         <v>26</v>
@@ -9144,13 +9144,13 @@
         <v>17686</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9165,13 +9165,13 @@
         <v>83350</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>625</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>626</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>627</v>
       </c>
       <c r="H10" s="7">
         <v>191</v>
@@ -9180,13 +9180,13 @@
         <v>120736</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>628</v>
+        <v>288</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="M10" s="7">
         <v>283</v>
@@ -9195,13 +9195,13 @@
         <v>204085</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9257,7 +9257,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -9269,13 +9269,13 @@
         <v>4295</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>459</v>
+        <v>631</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>234</v>
+        <v>632</v>
       </c>
       <c r="H12" s="7">
         <v>8</v>
@@ -9284,13 +9284,13 @@
         <v>4008</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>634</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>635</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>636</v>
       </c>
       <c r="M12" s="7">
         <v>15</v>
@@ -9299,13 +9299,13 @@
         <v>8303</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>637</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9320,13 +9320,13 @@
         <v>6131</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>175</v>
+        <v>638</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>639</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>640</v>
+        <v>377</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -9335,13 +9335,13 @@
         <v>13904</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>641</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>642</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>643</v>
+        <v>232</v>
       </c>
       <c r="M13" s="7">
         <v>35</v>
@@ -9350,13 +9350,13 @@
         <v>20035</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>644</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>645</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9371,13 +9371,13 @@
         <v>67175</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>647</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>648</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>649</v>
       </c>
       <c r="H14" s="7">
         <v>136</v>
@@ -9386,13 +9386,13 @@
         <v>77039</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>650</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>651</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>652</v>
       </c>
       <c r="M14" s="7">
         <v>241</v>
@@ -9401,13 +9401,13 @@
         <v>144214</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>653</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>654</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9475,13 +9475,13 @@
         <v>688</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>656</v>
+        <v>503</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -9490,13 +9490,13 @@
         <v>6895</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>658</v>
+        <v>61</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>133</v>
+        <v>656</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -9505,13 +9505,13 @@
         <v>7583</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>661</v>
+        <v>89</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>299</v>
+        <v>658</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9526,13 +9526,13 @@
         <v>8154</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>82</v>
+        <v>203</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
@@ -9541,13 +9541,13 @@
         <v>12129</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>78</v>
+        <v>403</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="M17" s="7">
         <v>41</v>
@@ -9556,13 +9556,13 @@
         <v>20283</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>666</v>
+        <v>277</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9577,13 +9577,13 @@
         <v>69963</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="H18" s="7">
         <v>213</v>
@@ -9592,13 +9592,13 @@
         <v>91432</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="M18" s="7">
         <v>317</v>
@@ -9607,13 +9607,13 @@
         <v>161394</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9669,7 +9669,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -9681,13 +9681,13 @@
         <v>1045</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>512</v>
+        <v>674</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -9696,13 +9696,13 @@
         <v>778</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -9711,13 +9711,13 @@
         <v>1824</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9732,13 +9732,13 @@
         <v>4411</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>684</v>
+        <v>395</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="H21" s="7">
         <v>31</v>
@@ -9747,13 +9747,13 @@
         <v>13432</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="M21" s="7">
         <v>39</v>
@@ -9762,13 +9762,13 @@
         <v>17843</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>44</v>
+        <v>427</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9783,13 +9783,13 @@
         <v>32874</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="H22" s="7">
         <v>132</v>
@@ -9798,13 +9798,13 @@
         <v>51270</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="M22" s="7">
         <v>193</v>
@@ -9813,13 +9813,13 @@
         <v>84145</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>243</v>
+        <v>694</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9875,7 +9875,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -9887,13 +9887,13 @@
         <v>5423</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>699</v>
+        <v>635</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>546</v>
+        <v>697</v>
       </c>
       <c r="H24" s="7">
         <v>14</v>
@@ -9902,13 +9902,13 @@
         <v>5569</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>398</v>
+        <v>698</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>413</v>
+        <v>699</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="M24" s="7">
         <v>26</v>
@@ -9917,13 +9917,13 @@
         <v>10992</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>702</v>
+        <v>22</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>703</v>
+        <v>106</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>415</v>
+        <v>701</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9938,13 +9938,13 @@
         <v>5410</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>702</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>704</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>705</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -9953,13 +9953,13 @@
         <v>2856</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>249</v>
-      </c>
       <c r="L25" s="7" t="s">
-        <v>440</v>
+        <v>351</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
@@ -9974,7 +9974,7 @@
         <v>708</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>709</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9989,13 +9989,13 @@
         <v>52350</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>710</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>711</v>
-      </c>
       <c r="G26" s="7" t="s">
-        <v>712</v>
+        <v>194</v>
       </c>
       <c r="H26" s="7">
         <v>156</v>
@@ -10004,13 +10004,13 @@
         <v>61428</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="M26" s="7">
         <v>267</v>
@@ -10019,13 +10019,13 @@
         <v>113779</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>715</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>716</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10081,7 +10081,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -10093,13 +10093,13 @@
         <v>2383</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>373</v>
+        <v>614</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>719</v>
+        <v>199</v>
       </c>
       <c r="H28" s="7">
         <v>13</v>
@@ -10108,13 +10108,13 @@
         <v>8765</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>720</v>
+        <v>202</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>257</v>
+        <v>718</v>
       </c>
       <c r="M28" s="7">
         <v>16</v>
@@ -10123,13 +10123,13 @@
         <v>11148</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>605</v>
+        <v>169</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10144,13 +10144,13 @@
         <v>20303</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="H29" s="7">
         <v>41</v>
@@ -10159,13 +10159,13 @@
         <v>26171</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>389</v>
+        <v>57</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="M29" s="7">
         <v>66</v>
@@ -10174,13 +10174,13 @@
         <v>46474</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10195,13 +10195,13 @@
         <v>108154</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>594</v>
+        <v>729</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="H30" s="7">
         <v>188</v>
@@ -10210,13 +10210,13 @@
         <v>223907</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>597</v>
+        <v>732</v>
       </c>
       <c r="K30" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>734</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>735</v>
       </c>
       <c r="M30" s="7">
         <v>328</v>
@@ -10225,13 +10225,13 @@
         <v>332061</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>735</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>737</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10287,7 +10287,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -10299,13 +10299,13 @@
         <v>4722</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>479</v>
+        <v>738</v>
       </c>
       <c r="F32" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>739</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>740</v>
       </c>
       <c r="H32" s="7">
         <v>18</v>
@@ -10314,13 +10314,13 @@
         <v>14063</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>740</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>741</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>742</v>
       </c>
       <c r="M32" s="7">
         <v>24</v>
@@ -10329,13 +10329,13 @@
         <v>18785</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>344</v>
+        <v>742</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>171</v>
+        <v>462</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>257</v>
+        <v>743</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10350,13 +10350,13 @@
         <v>9060</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>703</v>
+        <v>744</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="H33" s="7">
         <v>34</v>
@@ -10365,13 +10365,13 @@
         <v>23103</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="M33" s="7">
         <v>47</v>
@@ -10380,13 +10380,13 @@
         <v>32163</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10401,10 +10401,10 @@
         <v>155452</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>751</v>
+        <v>335</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>752</v>
@@ -10416,13 +10416,13 @@
         <v>185233</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>753</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>673</v>
+        <v>754</v>
       </c>
       <c r="M34" s="7">
         <v>505</v>
@@ -10431,13 +10431,13 @@
         <v>340685</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>497</v>
+        <v>757</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10505,13 +10505,13 @@
         <v>18557</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>757</v>
+        <v>500</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H36" s="7">
         <v>78</v>
@@ -10520,13 +10520,13 @@
         <v>45327</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>740</v>
+        <v>209</v>
       </c>
       <c r="M36" s="7">
         <v>109</v>
@@ -10535,13 +10535,13 @@
         <v>63884</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>762</v>
+        <v>157</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>763</v>
+        <v>320</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10556,13 +10556,13 @@
         <v>56434</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>763</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>764</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>765</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>766</v>
       </c>
       <c r="H37" s="7">
         <v>195</v>
@@ -10571,13 +10571,13 @@
         <v>109605</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K37" s="7" t="s">
+        <v>766</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>767</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>768</v>
       </c>
       <c r="M37" s="7">
         <v>279</v>
@@ -10586,13 +10586,13 @@
         <v>166038</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>500</v>
+        <v>768</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>769</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>770</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10607,10 +10607,10 @@
         <v>621238</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>771</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>494</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>772</v>
@@ -10699,7 +10699,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5409-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5409-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F3D62E6-58CE-4A51-917D-D19DBAB3FAAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CC53336-8395-4106-A7E0-88F0EA044896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4E930842-0147-463A-B25A-84E6D04237F9}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{40386DB4-1A70-443D-8ED7-F7E54FD4D36F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="792">
   <si>
     <t>Población según si se le escapa la orina (incontinencia) en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -704,7 +704,73 @@
     <t>Población según si se le escapa la orina (incontinencia) en 2012 (Tasa respuesta: 18,41%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>68,94%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
   </si>
   <si>
     <t>2,69%</t>
@@ -722,9 +788,6 @@
     <t>23,62%</t>
   </si>
   <si>
-    <t>9,0%</t>
-  </si>
-  <si>
     <t>5,01%</t>
   </si>
   <si>
@@ -803,9 +866,6 @@
     <t>3,13%</t>
   </si>
   <si>
-    <t>7,5%</t>
-  </si>
-  <si>
     <t>1,88%</t>
   </si>
   <si>
@@ -857,1525 +917,1504 @@
     <t>91,55%</t>
   </si>
   <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>Población según si se le escapa la orina (incontinencia) en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>63,87%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
     <t>1,94%</t>
   </si>
   <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>Población según si se le escapa la orina (incontinencia) en 2023 (Tasa respuesta: 31,24%)</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
   </si>
   <si>
     <t>2,23%</t>
   </si>
   <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>Población según si se le escapa la orina (incontinencia) en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>63,87%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>Población según si se le escapa la orina (incontinencia) en 2023 (Tasa respuesta: 31,24%)</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
   </si>
 </sst>
 </file>
@@ -2787,7 +2826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D52B52F7-D90C-4B0B-A108-CD4341EE3869}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46EB2EED-66D7-487D-B548-E161E555EC10}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4777,7 +4816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA9327E3-7CD1-4153-9B2D-9FABF46BC3E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679F251D-2E12-4B11-8763-B9AA9E1247F0}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4897,41 +4936,47 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>221</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>221</v>
+        <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>221</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="I4" s="7">
+        <v>7473</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="N4" s="7">
+        <v>7473</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4940,43 +4985,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="D5" s="7">
+        <v>3986</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="I5" s="7">
+        <v>8257</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>221</v>
+        <v>176</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="N5" s="7">
+        <v>12243</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4985,43 +5036,49 @@
         <v>23</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="D6" s="7">
+        <v>40295</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="I6" s="7">
+        <v>33164</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>68</v>
+      </c>
+      <c r="N6" s="7">
+        <v>73459</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5030,43 +5087,49 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="D7" s="7">
+        <v>44281</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>221</v>
+        <v>29</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>221</v>
+        <v>29</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>221</v>
+        <v>29</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>47</v>
+      </c>
+      <c r="I7" s="7">
+        <v>48894</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>221</v>
+        <v>29</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>221</v>
+        <v>29</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>221</v>
+        <v>29</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>87</v>
+      </c>
+      <c r="N7" s="7">
+        <v>93175</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>221</v>
+        <v>29</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>221</v>
+        <v>29</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>221</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5083,13 +5146,13 @@
         <v>2130</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="H8" s="7">
         <v>12</v>
@@ -5098,13 +5161,13 @@
         <v>14191</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="M8" s="7">
         <v>14</v>
@@ -5116,10 +5179,10 @@
         <v>227</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5134,13 +5197,13 @@
         <v>6505</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="H9" s="7">
         <v>10</v>
@@ -5149,13 +5212,13 @@
         <v>10912</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>203</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="M9" s="7">
         <v>14</v>
@@ -5164,13 +5227,13 @@
         <v>17417</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5185,10 +5248,10 @@
         <v>70567</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>73</v>
@@ -5200,13 +5263,13 @@
         <v>76990</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="M10" s="7">
         <v>134</v>
@@ -5215,13 +5278,13 @@
         <v>147558</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5289,13 +5352,13 @@
         <v>2988</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -5304,13 +5367,13 @@
         <v>6557</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="M12" s="7">
         <v>9</v>
@@ -5319,10 +5382,10 @@
         <v>9545</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>111</v>
@@ -5340,13 +5403,13 @@
         <v>4182</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -5355,13 +5418,13 @@
         <v>5208</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -5370,13 +5433,13 @@
         <v>9390</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5391,13 +5454,13 @@
         <v>48572</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="H14" s="7">
         <v>64</v>
@@ -5406,13 +5469,13 @@
         <v>68203</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="M14" s="7">
         <v>111</v>
@@ -5421,13 +5484,13 @@
         <v>116775</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5501,37 +5564,37 @@
         <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>272</v>
+        <v>103</v>
       </c>
       <c r="H16" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>10650</v>
+        <v>3177</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>204</v>
+        <v>293</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="M16" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>10650</v>
+        <v>3177</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>277</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5540,49 +5603,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D17" s="7">
-        <v>8468</v>
+        <v>4482</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="H17" s="7">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I17" s="7">
-        <v>13610</v>
+        <v>5353</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>281</v>
+        <v>67</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="M17" s="7">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="N17" s="7">
-        <v>22078</v>
+        <v>9835</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5591,49 +5654,49 @@
         <v>23</v>
       </c>
       <c r="C18" s="7">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="D18" s="7">
-        <v>99840</v>
+        <v>59546</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="H18" s="7">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="I18" s="7">
-        <v>110208</v>
+        <v>77044</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>292</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
-        <v>196</v>
+        <v>128</v>
       </c>
       <c r="N18" s="7">
-        <v>210049</v>
+        <v>136590</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5642,10 +5705,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="D19" s="7">
-        <v>108308</v>
+        <v>64028</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>29</v>
@@ -5657,10 +5720,10 @@
         <v>29</v>
       </c>
       <c r="H19" s="7">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="I19" s="7">
-        <v>134468</v>
+        <v>85574</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>29</v>
@@ -5672,10 +5735,10 @@
         <v>29</v>
       </c>
       <c r="M19" s="7">
-        <v>227</v>
+        <v>140</v>
       </c>
       <c r="N19" s="7">
-        <v>242777</v>
+        <v>149602</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>29</v>
@@ -5701,13 +5764,13 @@
         <v>1035</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5722,7 +5785,7 @@
         <v>14</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -5731,7 +5794,7 @@
         <v>1035</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>12</v>
@@ -5752,13 +5815,13 @@
         <v>4570</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="H21" s="7">
         <v>13</v>
@@ -5767,13 +5830,13 @@
         <v>13179</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="M21" s="7">
         <v>17</v>
@@ -5782,13 +5845,13 @@
         <v>17750</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5803,13 +5866,13 @@
         <v>26007</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="H22" s="7">
         <v>35</v>
@@ -5818,13 +5881,13 @@
         <v>36676</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="M22" s="7">
         <v>58</v>
@@ -5833,13 +5896,13 @@
         <v>62683</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5907,13 +5970,13 @@
         <v>1057</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -5922,13 +5985,13 @@
         <v>3243</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
@@ -5937,13 +6000,13 @@
         <v>4300</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5958,13 +6021,13 @@
         <v>5299</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -5973,13 +6036,13 @@
         <v>4207</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -5988,13 +6051,13 @@
         <v>9506</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6009,13 +6072,13 @@
         <v>45400</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="H26" s="7">
         <v>62</v>
@@ -6024,13 +6087,13 @@
         <v>62762</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="M26" s="7">
         <v>106</v>
@@ -6039,13 +6102,13 @@
         <v>108162</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6113,13 +6176,13 @@
         <v>1032</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -6128,13 +6191,13 @@
         <v>3188</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -6143,10 +6206,10 @@
         <v>4220</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>45</v>
@@ -6164,13 +6227,13 @@
         <v>9481</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="H29" s="7">
         <v>12</v>
@@ -6179,13 +6242,13 @@
         <v>13422</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="M29" s="7">
         <v>19</v>
@@ -6194,13 +6257,13 @@
         <v>22903</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6215,13 +6278,13 @@
         <v>101750</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="H30" s="7">
         <v>114</v>
@@ -6230,13 +6293,13 @@
         <v>125352</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="M30" s="7">
         <v>206</v>
@@ -6245,13 +6308,13 @@
         <v>227103</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6325,7 +6388,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="H32" s="7">
         <v>8</v>
@@ -6334,13 +6397,13 @@
         <v>8834</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="M32" s="7">
         <v>9</v>
@@ -6349,13 +6412,13 @@
         <v>9932</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>62</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6373,10 +6436,10 @@
         <v>100</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="H33" s="7">
         <v>13</v>
@@ -6385,13 +6448,13 @@
         <v>14289</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="M33" s="7">
         <v>18</v>
@@ -6400,13 +6463,13 @@
         <v>20871</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6421,13 +6484,13 @@
         <v>113072</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="H34" s="7">
         <v>130</v>
@@ -6436,13 +6499,13 @@
         <v>141294</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="M34" s="7">
         <v>230</v>
@@ -6451,13 +6514,13 @@
         <v>254366</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6531,7 +6594,7 @@
         <v>145</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="H36" s="7">
         <v>42</v>
@@ -6540,10 +6603,10 @@
         <v>46663</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>85</v>
@@ -6555,13 +6618,13 @@
         <v>56003</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6576,13 +6639,13 @@
         <v>45087</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="H37" s="7">
         <v>70</v>
@@ -6591,13 +6654,13 @@
         <v>74828</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="M37" s="7">
         <v>106</v>
@@ -6606,10 +6669,10 @@
         <v>119915</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>177</v>
@@ -6627,10 +6690,10 @@
         <v>505210</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>24</v>
@@ -6642,13 +6705,13 @@
         <v>621484</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="M38" s="7">
         <v>1041</v>
@@ -6657,13 +6720,13 @@
         <v>1126694</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6743,7 +6806,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002887F5-0A02-4448-81FF-359451E9B55E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37B9ED5-5CD0-43F7-92F6-0D5795DC48DE}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6760,7 +6823,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6867,13 +6930,13 @@
         <v>794</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -6882,13 +6945,13 @@
         <v>3262</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -6897,13 +6960,13 @@
         <v>4056</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6918,13 +6981,13 @@
         <v>7511</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -6933,13 +6996,13 @@
         <v>10156</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="M5" s="7">
         <v>17</v>
@@ -6948,13 +7011,13 @@
         <v>17667</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6969,13 +7032,13 @@
         <v>30592</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="H6" s="7">
         <v>32</v>
@@ -6984,13 +7047,13 @@
         <v>35972</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>433</v>
+        <v>450</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="M6" s="7">
         <v>64</v>
@@ -6999,13 +7062,13 @@
         <v>66564</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7079,7 +7142,7 @@
         <v>14</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -7088,13 +7151,13 @@
         <v>2430</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -7109,7 +7172,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>440</v>
+        <v>457</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7124,13 +7187,13 @@
         <v>2503</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -7139,13 +7202,13 @@
         <v>2614</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -7154,13 +7217,13 @@
         <v>5117</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7175,13 +7238,13 @@
         <v>84792</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>449</v>
+        <v>466</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="H10" s="7">
         <v>91</v>
@@ -7190,13 +7253,13 @@
         <v>110184</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>453</v>
+        <v>470</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
       <c r="M10" s="7">
         <v>178</v>
@@ -7205,13 +7268,13 @@
         <v>194977</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>457</v>
+        <v>474</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7285,7 +7348,7 @@
         <v>14</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -7294,13 +7357,13 @@
         <v>4477</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -7309,10 +7372,10 @@
         <v>4477</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>126</v>
@@ -7330,13 +7393,13 @@
         <v>4348</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -7345,13 +7408,13 @@
         <v>6297</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>466</v>
+        <v>483</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>467</v>
+        <v>484</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -7360,13 +7423,13 @@
         <v>10645</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7381,13 +7444,13 @@
         <v>59198</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>472</v>
+        <v>489</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>473</v>
+        <v>490</v>
       </c>
       <c r="H14" s="7">
         <v>61</v>
@@ -7396,13 +7459,13 @@
         <v>69123</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>293</v>
+        <v>491</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>474</v>
+        <v>492</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>475</v>
+        <v>493</v>
       </c>
       <c r="M14" s="7">
         <v>128</v>
@@ -7411,13 +7474,13 @@
         <v>128321</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>476</v>
+        <v>494</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>477</v>
+        <v>495</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>478</v>
+        <v>496</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7485,13 +7548,13 @@
         <v>2627</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>479</v>
+        <v>497</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>480</v>
+        <v>498</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -7500,13 +7563,13 @@
         <v>7180</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>481</v>
+        <v>499</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>482</v>
+        <v>500</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -7515,13 +7578,13 @@
         <v>9807</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>483</v>
+        <v>501</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>157</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>484</v>
+        <v>502</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7542,7 +7605,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>485</v>
+        <v>503</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -7551,13 +7614,13 @@
         <v>12503</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>486</v>
+        <v>504</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>487</v>
+        <v>505</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>488</v>
+        <v>506</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
@@ -7566,13 +7629,13 @@
         <v>14274</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>489</v>
+        <v>507</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>490</v>
+        <v>508</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7587,13 +7650,13 @@
         <v>60313</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>491</v>
+        <v>509</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>492</v>
+        <v>510</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>493</v>
+        <v>511</v>
       </c>
       <c r="H18" s="7">
         <v>60</v>
@@ -7602,13 +7665,13 @@
         <v>71892</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>494</v>
+        <v>512</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>495</v>
+        <v>513</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>496</v>
+        <v>514</v>
       </c>
       <c r="M18" s="7">
         <v>126</v>
@@ -7620,10 +7683,10 @@
         <v>139</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>497</v>
+        <v>515</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>498</v>
+        <v>516</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7697,7 +7760,7 @@
         <v>14</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7712,7 +7775,7 @@
         <v>14</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -7727,7 +7790,7 @@
         <v>14</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7742,13 +7805,13 @@
         <v>799</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>501</v>
+        <v>519</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -7763,7 +7826,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="M21" s="7">
         <v>3</v>
@@ -7772,13 +7835,13 @@
         <v>2895</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>503</v>
+        <v>521</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>504</v>
+        <v>522</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7793,10 +7856,10 @@
         <v>41281</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>506</v>
+        <v>524</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>27</v>
@@ -7808,10 +7871,10 @@
         <v>48436</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>507</v>
+        <v>525</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>508</v>
+        <v>526</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>27</v>
@@ -7823,13 +7886,13 @@
         <v>89717</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>509</v>
+        <v>527</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>511</v>
+        <v>529</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7897,13 +7960,13 @@
         <v>2752</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>60</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>512</v>
+        <v>530</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -7912,13 +7975,13 @@
         <v>6041</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>513</v>
+        <v>531</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>515</v>
+        <v>533</v>
       </c>
       <c r="M24" s="7">
         <v>8</v>
@@ -7927,13 +7990,13 @@
         <v>8792</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>516</v>
+        <v>534</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>517</v>
+        <v>535</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>518</v>
+        <v>536</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7948,13 +8011,13 @@
         <v>9096</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>519</v>
+        <v>537</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>520</v>
+        <v>538</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>521</v>
+        <v>539</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -7963,13 +8026,13 @@
         <v>4410</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>522</v>
+        <v>540</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>523</v>
+        <v>541</v>
       </c>
       <c r="M25" s="7">
         <v>15</v>
@@ -7981,10 +8044,10 @@
         <v>130</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>524</v>
+        <v>542</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>525</v>
+        <v>543</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7999,13 +8062,13 @@
         <v>36599</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>526</v>
+        <v>544</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>527</v>
+        <v>545</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>528</v>
+        <v>546</v>
       </c>
       <c r="H26" s="7">
         <v>50</v>
@@ -8014,13 +8077,13 @@
         <v>56937</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>529</v>
+        <v>547</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>530</v>
+        <v>548</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>531</v>
+        <v>549</v>
       </c>
       <c r="M26" s="7">
         <v>91</v>
@@ -8029,13 +8092,13 @@
         <v>93536</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>532</v>
+        <v>550</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>533</v>
+        <v>551</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>534</v>
+        <v>552</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8103,13 +8166,13 @@
         <v>1804</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -8118,13 +8181,13 @@
         <v>3582</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>537</v>
+        <v>555</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>538</v>
+        <v>556</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>539</v>
+        <v>557</v>
       </c>
       <c r="M28" s="7">
         <v>5</v>
@@ -8133,13 +8196,13 @@
         <v>5386</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>540</v>
+        <v>558</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>66</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>541</v>
+        <v>559</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8154,13 +8217,13 @@
         <v>11608</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>542</v>
+        <v>560</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>543</v>
+        <v>561</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>544</v>
+        <v>562</v>
       </c>
       <c r="H29" s="7">
         <v>30</v>
@@ -8169,13 +8232,13 @@
         <v>36155</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>545</v>
+        <v>563</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>546</v>
+        <v>564</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>547</v>
+        <v>565</v>
       </c>
       <c r="M29" s="7">
         <v>40</v>
@@ -8184,13 +8247,13 @@
         <v>47763</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>548</v>
+        <v>566</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>550</v>
+        <v>568</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8205,13 +8268,13 @@
         <v>98773</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>552</v>
+        <v>570</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>553</v>
+        <v>571</v>
       </c>
       <c r="H30" s="7">
         <v>92</v>
@@ -8220,13 +8283,13 @@
         <v>107888</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>554</v>
+        <v>572</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>555</v>
+        <v>573</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>556</v>
+        <v>574</v>
       </c>
       <c r="M30" s="7">
         <v>189</v>
@@ -8235,13 +8298,13 @@
         <v>206661</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>557</v>
+        <v>575</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>558</v>
+        <v>576</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>559</v>
+        <v>577</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8309,13 +8372,13 @@
         <v>867</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>560</v>
+        <v>578</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>561</v>
+        <v>579</v>
       </c>
       <c r="H32" s="7">
         <v>6</v>
@@ -8324,13 +8387,13 @@
         <v>7502</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>562</v>
+        <v>580</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>563</v>
+        <v>581</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>564</v>
+        <v>582</v>
       </c>
       <c r="M32" s="7">
         <v>7</v>
@@ -8345,7 +8408,7 @@
         <v>195</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>565</v>
+        <v>583</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8360,13 +8423,13 @@
         <v>3409</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>560</v>
+        <v>578</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>566</v>
+        <v>584</v>
       </c>
       <c r="H33" s="7">
         <v>3</v>
@@ -8375,13 +8438,13 @@
         <v>3424</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>272</v>
+        <v>585</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>567</v>
+        <v>586</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>568</v>
+        <v>587</v>
       </c>
       <c r="M33" s="7">
         <v>7</v>
@@ -8390,13 +8453,13 @@
         <v>6834</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>569</v>
+        <v>588</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>570</v>
+        <v>589</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>571</v>
+        <v>590</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8411,13 +8474,13 @@
         <v>129892</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>572</v>
+        <v>591</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>573</v>
+        <v>592</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>574</v>
+        <v>593</v>
       </c>
       <c r="H34" s="7">
         <v>133</v>
@@ -8426,13 +8489,13 @@
         <v>165371</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>575</v>
+        <v>594</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>576</v>
+        <v>595</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>577</v>
+        <v>596</v>
       </c>
       <c r="M34" s="7">
         <v>269</v>
@@ -8444,10 +8507,10 @@
         <v>28</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>578</v>
+        <v>597</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>579</v>
+        <v>598</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8515,13 +8578,13 @@
         <v>8843</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>37</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>580</v>
+        <v>599</v>
       </c>
       <c r="H36" s="7">
         <v>27</v>
@@ -8533,10 +8596,10 @@
         <v>210</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>581</v>
+        <v>600</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>582</v>
+        <v>601</v>
       </c>
       <c r="M36" s="7">
         <v>37</v>
@@ -8545,13 +8608,13 @@
         <v>43317</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>583</v>
+        <v>602</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>584</v>
+        <v>603</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8569,10 +8632,10 @@
         <v>44</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>585</v>
+        <v>604</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>586</v>
+        <v>605</v>
       </c>
       <c r="H37" s="7">
         <v>65</v>
@@ -8581,13 +8644,13 @@
         <v>77655</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>587</v>
+        <v>606</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>588</v>
+        <v>607</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="M37" s="7">
         <v>110</v>
@@ -8599,10 +8662,10 @@
         <v>78</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>590</v>
+        <v>609</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>591</v>
+        <v>610</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8617,13 +8680,13 @@
         <v>541440</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>592</v>
+        <v>611</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>593</v>
+        <v>612</v>
       </c>
       <c r="H38" s="7">
         <v>563</v>
@@ -8632,10 +8695,10 @@
         <v>665802</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>594</v>
+        <v>613</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>595</v>
+        <v>614</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>137</v>
@@ -8647,13 +8710,13 @@
         <v>1207242</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>596</v>
+        <v>615</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>597</v>
+        <v>616</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>598</v>
+        <v>617</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8733,7 +8796,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718F5E60-998F-42D6-AC9F-81496927A007}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A37781E-8D72-49BF-A05A-B535375372A5}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8750,7 +8813,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>599</v>
+        <v>618</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8878,7 +8941,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>600</v>
+        <v>619</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -8893,7 +8956,7 @@
         <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8920,31 +8983,31 @@
         <v>6</v>
       </c>
       <c r="I5" s="7">
-        <v>3289</v>
+        <v>3335</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>601</v>
+        <v>620</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>602</v>
+        <v>621</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>603</v>
+        <v>622</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
       </c>
       <c r="N5" s="7">
-        <v>3289</v>
+        <v>3335</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>604</v>
+        <v>623</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>605</v>
+        <v>134</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>606</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8956,13 +9019,13 @@
         <v>83</v>
       </c>
       <c r="D6" s="7">
-        <v>51920</v>
+        <v>55901</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>607</v>
+        <v>624</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>29</v>
@@ -8971,31 +9034,31 @@
         <v>126</v>
       </c>
       <c r="I6" s="7">
-        <v>58930</v>
+        <v>60074</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>608</v>
+        <v>625</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>609</v>
+        <v>626</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>610</v>
+        <v>627</v>
       </c>
       <c r="M6" s="7">
         <v>209</v>
       </c>
       <c r="N6" s="7">
-        <v>110850</v>
+        <v>115975</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>579</v>
+        <v>628</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>611</v>
+        <v>165</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>612</v>
+        <v>629</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9007,7 +9070,7 @@
         <v>83</v>
       </c>
       <c r="D7" s="7">
-        <v>51920</v>
+        <v>55901</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>29</v>
@@ -9022,7 +9085,7 @@
         <v>132</v>
       </c>
       <c r="I7" s="7">
-        <v>62219</v>
+        <v>63409</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>29</v>
@@ -9037,7 +9100,7 @@
         <v>215</v>
       </c>
       <c r="N7" s="7">
-        <v>114139</v>
+        <v>119310</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>29</v>
@@ -9075,31 +9138,31 @@
         <v>8</v>
       </c>
       <c r="I8" s="7">
-        <v>5250</v>
+        <v>4681</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>613</v>
+        <v>457</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>614</v>
+        <v>298</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>615</v>
+        <v>630</v>
       </c>
       <c r="M8" s="7">
         <v>8</v>
       </c>
       <c r="N8" s="7">
-        <v>5250</v>
+        <v>4681</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>200</v>
+        <v>631</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>605</v>
+        <v>632</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>275</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9111,46 +9174,46 @@
         <v>3</v>
       </c>
       <c r="D9" s="7">
-        <v>2964</v>
+        <v>2715</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>514</v>
+        <v>633</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>616</v>
+        <v>134</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>617</v>
+        <v>634</v>
       </c>
       <c r="H9" s="7">
         <v>23</v>
       </c>
       <c r="I9" s="7">
-        <v>14722</v>
+        <v>13287</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>618</v>
+        <v>560</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>619</v>
+        <v>635</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>620</v>
+        <v>636</v>
       </c>
       <c r="M9" s="7">
         <v>26</v>
       </c>
       <c r="N9" s="7">
-        <v>17686</v>
+        <v>16002</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>332</v>
+        <v>637</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>621</v>
+        <v>638</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>622</v>
+        <v>639</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9162,46 +9225,46 @@
         <v>92</v>
       </c>
       <c r="D10" s="7">
-        <v>83350</v>
+        <v>77994</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>623</v>
+        <v>640</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>624</v>
+        <v>641</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="H10" s="7">
         <v>191</v>
       </c>
       <c r="I10" s="7">
-        <v>120736</v>
+        <v>110430</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>288</v>
+        <v>642</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>626</v>
+        <v>643</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>627</v>
+        <v>644</v>
       </c>
       <c r="M10" s="7">
         <v>283</v>
       </c>
       <c r="N10" s="7">
-        <v>204085</v>
+        <v>188424</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>628</v>
+        <v>645</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>629</v>
+        <v>646</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>630</v>
+        <v>647</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9213,7 +9276,7 @@
         <v>95</v>
       </c>
       <c r="D11" s="7">
-        <v>86314</v>
+        <v>80709</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>29</v>
@@ -9228,7 +9291,7 @@
         <v>222</v>
       </c>
       <c r="I11" s="7">
-        <v>140707</v>
+        <v>128398</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>29</v>
@@ -9243,7 +9306,7 @@
         <v>317</v>
       </c>
       <c r="N11" s="7">
-        <v>227021</v>
+        <v>209107</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>29</v>
@@ -9266,46 +9329,46 @@
         <v>7</v>
       </c>
       <c r="D12" s="7">
-        <v>4295</v>
+        <v>4058</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>101</v>
+        <v>203</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>631</v>
+        <v>648</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>632</v>
+        <v>649</v>
       </c>
       <c r="H12" s="7">
         <v>8</v>
       </c>
       <c r="I12" s="7">
-        <v>4008</v>
+        <v>3652</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>633</v>
+        <v>650</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>634</v>
+        <v>275</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>635</v>
+        <v>651</v>
       </c>
       <c r="M12" s="7">
         <v>15</v>
       </c>
       <c r="N12" s="7">
-        <v>8303</v>
+        <v>7710</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>636</v>
+        <v>652</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>580</v>
+        <v>653</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>637</v>
+        <v>654</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9317,46 +9380,46 @@
         <v>10</v>
       </c>
       <c r="D13" s="7">
-        <v>6131</v>
+        <v>5792</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>638</v>
+        <v>483</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>639</v>
+        <v>655</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>377</v>
+        <v>656</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
       </c>
       <c r="I13" s="7">
-        <v>13904</v>
+        <v>12749</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>640</v>
+        <v>657</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>641</v>
+        <v>658</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>232</v>
+        <v>659</v>
       </c>
       <c r="M13" s="7">
         <v>35</v>
       </c>
       <c r="N13" s="7">
-        <v>20035</v>
+        <v>18542</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>642</v>
+        <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>643</v>
+        <v>660</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>644</v>
+        <v>661</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9368,46 +9431,46 @@
         <v>105</v>
       </c>
       <c r="D14" s="7">
-        <v>67175</v>
+        <v>63639</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>645</v>
+        <v>662</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>646</v>
+        <v>663</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>647</v>
+        <v>611</v>
       </c>
       <c r="H14" s="7">
         <v>136</v>
       </c>
       <c r="I14" s="7">
-        <v>77039</v>
+        <v>71024</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>648</v>
+        <v>664</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>649</v>
+        <v>665</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>650</v>
+        <v>666</v>
       </c>
       <c r="M14" s="7">
         <v>241</v>
       </c>
       <c r="N14" s="7">
-        <v>144214</v>
+        <v>134663</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>651</v>
+        <v>667</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>652</v>
+        <v>668</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>653</v>
+        <v>669</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9419,7 +9482,7 @@
         <v>122</v>
       </c>
       <c r="D15" s="7">
-        <v>77601</v>
+        <v>73490</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>29</v>
@@ -9434,7 +9497,7 @@
         <v>169</v>
       </c>
       <c r="I15" s="7">
-        <v>94951</v>
+        <v>87425</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>29</v>
@@ -9449,7 +9512,7 @@
         <v>291</v>
       </c>
       <c r="N15" s="7">
-        <v>172552</v>
+        <v>160915</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>29</v>
@@ -9472,46 +9535,46 @@
         <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>688</v>
+        <v>636</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>503</v>
+        <v>670</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>654</v>
+        <v>671</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
       </c>
       <c r="I16" s="7">
-        <v>6895</v>
+        <v>6384</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>61</v>
+        <v>365</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>655</v>
+        <v>672</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>656</v>
+        <v>673</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
       </c>
       <c r="N16" s="7">
-        <v>7583</v>
+        <v>7020</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>657</v>
+        <v>486</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>89</v>
+        <v>674</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>658</v>
+        <v>675</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9523,46 +9586,46 @@
         <v>13</v>
       </c>
       <c r="D17" s="7">
-        <v>8154</v>
+        <v>7690</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>542</v>
+        <v>676</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>203</v>
+        <v>101</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>659</v>
+        <v>677</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
       </c>
       <c r="I17" s="7">
-        <v>12129</v>
+        <v>11346</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>660</v>
+        <v>177</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>403</v>
+        <v>678</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>661</v>
+        <v>222</v>
       </c>
       <c r="M17" s="7">
         <v>41</v>
       </c>
       <c r="N17" s="7">
-        <v>20283</v>
+        <v>19036</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>662</v>
+        <v>679</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>277</v>
+        <v>499</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9574,46 +9637,46 @@
         <v>104</v>
       </c>
       <c r="D18" s="7">
-        <v>69963</v>
+        <v>66342</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>664</v>
+        <v>681</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>665</v>
+        <v>682</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>666</v>
+        <v>683</v>
       </c>
       <c r="H18" s="7">
         <v>213</v>
       </c>
       <c r="I18" s="7">
-        <v>91432</v>
+        <v>85906</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>667</v>
+        <v>684</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>668</v>
+        <v>685</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>669</v>
+        <v>552</v>
       </c>
       <c r="M18" s="7">
         <v>317</v>
       </c>
       <c r="N18" s="7">
-        <v>161394</v>
+        <v>152247</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>670</v>
+        <v>686</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>671</v>
+        <v>687</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>672</v>
+        <v>688</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9625,7 +9688,7 @@
         <v>118</v>
       </c>
       <c r="D19" s="7">
-        <v>78805</v>
+        <v>74668</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>29</v>
@@ -9640,7 +9703,7 @@
         <v>256</v>
       </c>
       <c r="I19" s="7">
-        <v>110455</v>
+        <v>103636</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>29</v>
@@ -9655,7 +9718,7 @@
         <v>374</v>
       </c>
       <c r="N19" s="7">
-        <v>189260</v>
+        <v>178303</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>29</v>
@@ -9678,46 +9741,46 @@
         <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>1045</v>
+        <v>961</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>673</v>
+        <v>689</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>674</v>
+        <v>690</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>778</v>
+        <v>706</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>675</v>
+        <v>691</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>676</v>
+        <v>655</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
       </c>
       <c r="N20" s="7">
-        <v>1824</v>
+        <v>1667</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>677</v>
+        <v>298</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>678</v>
+        <v>692</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>679</v>
+        <v>652</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9729,46 +9792,46 @@
         <v>8</v>
       </c>
       <c r="D21" s="7">
-        <v>4411</v>
+        <v>3967</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>680</v>
+        <v>693</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>395</v>
+        <v>83</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>681</v>
+        <v>694</v>
       </c>
       <c r="H21" s="7">
         <v>31</v>
       </c>
       <c r="I21" s="7">
-        <v>13432</v>
+        <v>11928</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>683</v>
+        <v>696</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>684</v>
+        <v>697</v>
       </c>
       <c r="M21" s="7">
         <v>39</v>
       </c>
       <c r="N21" s="7">
-        <v>17843</v>
+        <v>15896</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>685</v>
+        <v>698</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>427</v>
+        <v>699</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>686</v>
+        <v>700</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9780,46 +9843,46 @@
         <v>61</v>
       </c>
       <c r="D22" s="7">
-        <v>32874</v>
+        <v>29887</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>687</v>
+        <v>311</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>689</v>
+        <v>702</v>
       </c>
       <c r="H22" s="7">
         <v>132</v>
       </c>
       <c r="I22" s="7">
-        <v>51270</v>
+        <v>46612</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>690</v>
+        <v>703</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>691</v>
+        <v>704</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>692</v>
+        <v>705</v>
       </c>
       <c r="M22" s="7">
         <v>193</v>
       </c>
       <c r="N22" s="7">
-        <v>84145</v>
+        <v>76499</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>693</v>
+        <v>706</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>694</v>
+        <v>707</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>695</v>
+        <v>708</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9831,7 +9894,7 @@
         <v>71</v>
       </c>
       <c r="D23" s="7">
-        <v>38331</v>
+        <v>34816</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>29</v>
@@ -9846,7 +9909,7 @@
         <v>165</v>
       </c>
       <c r="I23" s="7">
-        <v>65480</v>
+        <v>59246</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>29</v>
@@ -9861,7 +9924,7 @@
         <v>236</v>
       </c>
       <c r="N23" s="7">
-        <v>103812</v>
+        <v>94062</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>29</v>
@@ -9884,46 +9947,46 @@
         <v>12</v>
       </c>
       <c r="D24" s="7">
-        <v>5423</v>
+        <v>5139</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>635</v>
+        <v>709</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>696</v>
+        <v>710</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>697</v>
+        <v>711</v>
       </c>
       <c r="H24" s="7">
         <v>14</v>
       </c>
       <c r="I24" s="7">
-        <v>5569</v>
+        <v>5162</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>698</v>
+        <v>712</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>699</v>
+        <v>713</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>700</v>
+        <v>714</v>
       </c>
       <c r="M24" s="7">
         <v>26</v>
       </c>
       <c r="N24" s="7">
-        <v>10992</v>
+        <v>10300</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>22</v>
+        <v>251</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>106</v>
+        <v>203</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>701</v>
+        <v>715</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9935,46 +9998,46 @@
         <v>12</v>
       </c>
       <c r="D25" s="7">
-        <v>5410</v>
+        <v>5122</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>702</v>
+        <v>716</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>703</v>
+        <v>717</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>704</v>
+        <v>718</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
       </c>
       <c r="I25" s="7">
-        <v>2856</v>
+        <v>2645</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>705</v>
+        <v>719</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>706</v>
+        <v>720</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>351</v>
+        <v>721</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
       </c>
       <c r="N25" s="7">
-        <v>8266</v>
+        <v>7767</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>707</v>
+        <v>722</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>708</v>
+        <v>723</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>59</v>
+        <v>724</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9986,46 +10049,46 @@
         <v>111</v>
       </c>
       <c r="D26" s="7">
-        <v>52350</v>
+        <v>50000</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>709</v>
+        <v>725</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>710</v>
+        <v>726</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>194</v>
+        <v>727</v>
       </c>
       <c r="H26" s="7">
         <v>156</v>
       </c>
       <c r="I26" s="7">
-        <v>61428</v>
+        <v>57451</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>711</v>
+        <v>569</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>309</v>
+        <v>728</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>712</v>
+        <v>729</v>
       </c>
       <c r="M26" s="7">
         <v>267</v>
       </c>
       <c r="N26" s="7">
-        <v>113779</v>
+        <v>107451</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>713</v>
+        <v>730</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>714</v>
+        <v>731</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>715</v>
+        <v>732</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10037,7 +10100,7 @@
         <v>135</v>
       </c>
       <c r="D27" s="7">
-        <v>63183</v>
+        <v>60261</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>29</v>
@@ -10052,7 +10115,7 @@
         <v>177</v>
       </c>
       <c r="I27" s="7">
-        <v>69853</v>
+        <v>65258</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>29</v>
@@ -10067,7 +10130,7 @@
         <v>312</v>
       </c>
       <c r="N27" s="7">
-        <v>133037</v>
+        <v>125519</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>29</v>
@@ -10090,46 +10153,46 @@
         <v>3</v>
       </c>
       <c r="D28" s="7">
-        <v>2383</v>
+        <v>2223</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>614</v>
+        <v>733</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>716</v>
+        <v>734</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>199</v>
+        <v>735</v>
       </c>
       <c r="H28" s="7">
         <v>13</v>
       </c>
       <c r="I28" s="7">
-        <v>8765</v>
+        <v>7790</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>717</v>
+        <v>736</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>718</v>
+        <v>737</v>
       </c>
       <c r="M28" s="7">
         <v>16</v>
       </c>
       <c r="N28" s="7">
-        <v>11148</v>
+        <v>10013</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>719</v>
+        <v>603</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>169</v>
+        <v>738</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>720</v>
+        <v>739</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10141,46 +10204,46 @@
         <v>25</v>
       </c>
       <c r="D29" s="7">
-        <v>20303</v>
+        <v>19107</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>721</v>
+        <v>740</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>722</v>
+        <v>741</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>723</v>
+        <v>742</v>
       </c>
       <c r="H29" s="7">
         <v>41</v>
       </c>
       <c r="I29" s="7">
-        <v>26171</v>
+        <v>23640</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>724</v>
+        <v>743</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>57</v>
+        <v>129</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>725</v>
+        <v>744</v>
       </c>
       <c r="M29" s="7">
         <v>66</v>
       </c>
       <c r="N29" s="7">
-        <v>46474</v>
+        <v>42747</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>726</v>
+        <v>745</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>727</v>
+        <v>746</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>728</v>
+        <v>747</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10192,46 +10255,46 @@
         <v>140</v>
       </c>
       <c r="D30" s="7">
-        <v>108154</v>
+        <v>101924</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>729</v>
+        <v>748</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>730</v>
+        <v>749</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>731</v>
+        <v>750</v>
       </c>
       <c r="H30" s="7">
         <v>188</v>
       </c>
       <c r="I30" s="7">
-        <v>223907</v>
+        <v>307752</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>732</v>
+        <v>751</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>733</v>
+        <v>752</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>734</v>
+        <v>753</v>
       </c>
       <c r="M30" s="7">
         <v>328</v>
       </c>
       <c r="N30" s="7">
-        <v>332061</v>
+        <v>409677</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>735</v>
+        <v>754</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>736</v>
+        <v>755</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>737</v>
+        <v>756</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10243,7 +10306,7 @@
         <v>168</v>
       </c>
       <c r="D31" s="7">
-        <v>130840</v>
+        <v>123254</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>29</v>
@@ -10258,7 +10321,7 @@
         <v>242</v>
       </c>
       <c r="I31" s="7">
-        <v>258843</v>
+        <v>339182</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>29</v>
@@ -10273,7 +10336,7 @@
         <v>410</v>
       </c>
       <c r="N31" s="7">
-        <v>389683</v>
+        <v>462436</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>29</v>
@@ -10296,46 +10359,46 @@
         <v>6</v>
       </c>
       <c r="D32" s="7">
-        <v>4722</v>
+        <v>3849</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>738</v>
+        <v>757</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>299</v>
+        <v>758</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>739</v>
+        <v>759</v>
       </c>
       <c r="H32" s="7">
         <v>18</v>
       </c>
       <c r="I32" s="7">
-        <v>14063</v>
+        <v>10644</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>582</v>
+        <v>760</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>740</v>
+        <v>313</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>741</v>
+        <v>761</v>
       </c>
       <c r="M32" s="7">
         <v>24</v>
       </c>
       <c r="N32" s="7">
-        <v>18785</v>
+        <v>14492</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>742</v>
+        <v>762</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>743</v>
+        <v>763</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10347,46 +10410,46 @@
         <v>13</v>
       </c>
       <c r="D33" s="7">
-        <v>9060</v>
+        <v>7726</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>744</v>
+        <v>764</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>745</v>
+        <v>765</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>746</v>
+        <v>227</v>
       </c>
       <c r="H33" s="7">
         <v>34</v>
       </c>
       <c r="I33" s="7">
-        <v>23103</v>
+        <v>18940</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>741</v>
+        <v>766</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>747</v>
+        <v>767</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>748</v>
+        <v>768</v>
       </c>
       <c r="M33" s="7">
         <v>47</v>
       </c>
       <c r="N33" s="7">
-        <v>32163</v>
+        <v>26667</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>749</v>
+        <v>206</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10398,46 +10461,46 @@
         <v>215</v>
       </c>
       <c r="D34" s="7">
-        <v>155452</v>
+        <v>134900</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>751</v>
+        <v>770</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>335</v>
+        <v>194</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="H34" s="7">
         <v>290</v>
       </c>
       <c r="I34" s="7">
-        <v>185233</v>
+        <v>156508</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>117</v>
+        <v>772</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>753</v>
+        <v>773</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>754</v>
+        <v>774</v>
       </c>
       <c r="M34" s="7">
         <v>505</v>
       </c>
       <c r="N34" s="7">
-        <v>340685</v>
+        <v>291408</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>755</v>
+        <v>775</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>756</v>
+        <v>547</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>757</v>
+        <v>776</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10449,7 +10512,7 @@
         <v>234</v>
       </c>
       <c r="D35" s="7">
-        <v>169234</v>
+        <v>146475</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>29</v>
@@ -10464,7 +10527,7 @@
         <v>342</v>
       </c>
       <c r="I35" s="7">
-        <v>222399</v>
+        <v>186092</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>29</v>
@@ -10479,7 +10542,7 @@
         <v>576</v>
       </c>
       <c r="N35" s="7">
-        <v>391633</v>
+        <v>332567</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>29</v>
@@ -10502,46 +10565,46 @@
         <v>31</v>
       </c>
       <c r="D36" s="7">
-        <v>18557</v>
+        <v>16865</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>758</v>
+        <v>11</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>500</v>
+        <v>777</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="H36" s="7">
         <v>78</v>
       </c>
       <c r="I36" s="7">
-        <v>45327</v>
+        <v>39019</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>760</v>
+        <v>779</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>761</v>
+        <v>518</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>209</v>
+        <v>604</v>
       </c>
       <c r="M36" s="7">
         <v>109</v>
       </c>
       <c r="N36" s="7">
-        <v>63884</v>
+        <v>55884</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>762</v>
+        <v>411</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>157</v>
+        <v>780</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>320</v>
+        <v>781</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10553,46 +10616,46 @@
         <v>84</v>
       </c>
       <c r="D37" s="7">
-        <v>56434</v>
+        <v>52120</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>763</v>
+        <v>208</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>764</v>
+        <v>277</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>765</v>
+        <v>90</v>
       </c>
       <c r="H37" s="7">
         <v>195</v>
       </c>
       <c r="I37" s="7">
-        <v>109605</v>
+        <v>97871</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>233</v>
+        <v>782</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>766</v>
+        <v>583</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
       <c r="M37" s="7">
         <v>279</v>
       </c>
       <c r="N37" s="7">
-        <v>166038</v>
+        <v>149991</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>768</v>
+        <v>582</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>769</v>
+        <v>501</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>108</v>
+        <v>679</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10604,46 +10667,46 @@
         <v>911</v>
       </c>
       <c r="D38" s="7">
-        <v>621238</v>
+        <v>580587</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>770</v>
+        <v>784</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>771</v>
+        <v>785</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>772</v>
+        <v>786</v>
       </c>
       <c r="H38" s="7">
         <v>1432</v>
       </c>
       <c r="I38" s="7">
-        <v>869976</v>
+        <v>895756</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>773</v>
+        <v>666</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>774</v>
+        <v>787</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>775</v>
+        <v>788</v>
       </c>
       <c r="M38" s="7">
         <v>2343</v>
       </c>
       <c r="N38" s="7">
-        <v>1491214</v>
+        <v>1476344</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>776</v>
+        <v>789</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>777</v>
+        <v>790</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>778</v>
+        <v>791</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10655,7 +10718,7 @@
         <v>1026</v>
       </c>
       <c r="D39" s="7">
-        <v>696228</v>
+        <v>649573</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>29</v>
@@ -10670,7 +10733,7 @@
         <v>1705</v>
       </c>
       <c r="I39" s="7">
-        <v>1024908</v>
+        <v>1032646</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>29</v>
@@ -10685,7 +10748,7 @@
         <v>2731</v>
       </c>
       <c r="N39" s="7">
-        <v>1721136</v>
+        <v>1682219</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>29</v>
